--- a/C4RM_Class_03.xlsx
+++ b/C4RM_Class_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/AA/GoodStuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D6DE8-DDDE-2E41-8520-4ACA6C9899DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B364644-D77A-8D4B-9D84-BB73C8AE235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
@@ -34,11 +34,12 @@
     <sheet name="InClassProjects" sheetId="49" r:id="rId19"/>
     <sheet name="qBondPrice" sheetId="50" r:id="rId20"/>
     <sheet name="qBondDuration" sheetId="51" r:id="rId21"/>
-    <sheet name="qDataTypes1" sheetId="15" state="hidden" r:id="rId22"/>
-    <sheet name="qDataTypes2" sheetId="30" state="hidden" r:id="rId23"/>
+    <sheet name="SQL_Time" sheetId="55" r:id="rId22"/>
+    <sheet name="qDataTypes1" sheetId="15" state="hidden" r:id="rId23"/>
+    <sheet name="qDataTypes2" sheetId="30" state="hidden" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <definedNames>
     <definedName name="couponRate">[1]qFunctions!$C$8</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>ytm</t>
   </si>
@@ -446,6 +447,9 @@
   <si>
     <t>Duration</t>
   </si>
+  <si>
+    <t>SQLite Online</t>
+  </si>
 </sst>
 </file>
 
@@ -455,7 +459,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,6 +538,14 @@
       <name val="Symbol"/>
       <charset val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -591,7 +603,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -619,6 +631,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1757,6 +1770,471 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE69974-F63B-F54E-845D-78E805EEF427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="622300"/>
+          <a:ext cx="3302000" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT DATE('now');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT strftime('%d/%m/%Y %H:%M:%S', 'now');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>arrow_upward</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>arrow_downward</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>link</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>comment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>edit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>delete</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>more_vert</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- The term "strftime" is an abbreviation for "string format time."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%Y: Year with century (e.g., 2023)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%m: Month as a zero-padded numeric value (e.g., 07 for July)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%d: Day of the month as a zero-padded numeric value (e.g., 08)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%H: Hour in 24-hour format as a zero-padded numeric value (e.g., 13 for 1 PM)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%M: Minute as a zero-padded numeric value (e.g., 30)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>%S: Second as a zero-padded numeric value (e.g., 45)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8EAFF3-FAA5-B44B-B434-44C15DE76A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4597400" y="622300"/>
+          <a:ext cx="3302000" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Homework</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Return the current hour</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Save the work in a sql file named time.sql</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Do now worry about time zone</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -1984,7 +2462,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6022,6 +6500,34 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5DD08-8A55-B849-B29A-8F5A9093D27E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8082A1A9-793C-2646-AB54-B7BA2A1ACCA5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51877837-A945-E442-8664-88ED3F649F6E}">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFFFF00"/>
@@ -6102,7 +6608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E01E7A2-6C77-A24A-A027-97262D7379F7}">
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FFFFFF00"/>

--- a/C4RM_Class_03.xlsx
+++ b/C4RM_Class_03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/AA/GoodStuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B364644-D77A-8D4B-9D84-BB73C8AE235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2F1974-A8A1-144D-92C4-2F21B5693267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
@@ -35,11 +35,17 @@
     <sheet name="qBondPrice" sheetId="50" r:id="rId20"/>
     <sheet name="qBondDuration" sheetId="51" r:id="rId21"/>
     <sheet name="SQL_Time" sheetId="55" r:id="rId22"/>
-    <sheet name="qDataTypes1" sheetId="15" state="hidden" r:id="rId23"/>
-    <sheet name="qDataTypes2" sheetId="30" state="hidden" r:id="rId24"/>
+    <sheet name="Appendix " sheetId="56" r:id="rId23"/>
+    <sheet name="DataObj1 (2)" sheetId="57" r:id="rId24"/>
+    <sheet name="DataObj2 (2)" sheetId="58" r:id="rId25"/>
+    <sheet name="DataObj3 (2)" sheetId="59" r:id="rId26"/>
+    <sheet name="DataObj4 (2)" sheetId="60" r:id="rId27"/>
+    <sheet name="DataObj5 (2)" sheetId="61" r:id="rId28"/>
+    <sheet name="qDataTypes1" sheetId="15" state="hidden" r:id="rId29"/>
+    <sheet name="qDataTypes2" sheetId="30" state="hidden" r:id="rId30"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="couponRate">[1]qFunctions!$C$8</definedName>
@@ -67,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="115">
   <si>
     <t>ytm</t>
   </si>
@@ -547,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +576,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -603,7 +627,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -632,6 +656,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -6528,6 +6555,2744 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE959D74-589C-B440-8475-07F987938EF2}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB569661-56C8-BA4B-8588-CA504D95C459}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="C3:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>82445.652192529014</v>
+      </c>
+      <c r="E5" s="23">
+        <v>398320.27382106544</v>
+      </c>
+      <c r="F5" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>70125.545362721474</v>
+      </c>
+      <c r="E6" s="23">
+        <v>372046.81193544931</v>
+      </c>
+      <c r="F6" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>71547.329455275263</v>
+      </c>
+      <c r="E7" s="23">
+        <v>395923.9309082441</v>
+      </c>
+      <c r="F7" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>76293.652935267295</v>
+      </c>
+      <c r="E8" s="23">
+        <v>429890.82988121646</v>
+      </c>
+      <c r="F8" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>89786.716463192279</v>
+      </c>
+      <c r="E9" s="23">
+        <v>559779.67481757223</v>
+      </c>
+      <c r="F9" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22">
+        <v>99382.919974268269</v>
+      </c>
+      <c r="E10" s="23">
+        <v>591386.8950826017</v>
+      </c>
+      <c r="F10" s="24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22">
+        <v>80594.457398696104</v>
+      </c>
+      <c r="E11" s="23">
+        <v>456555.96491611289</v>
+      </c>
+      <c r="F11" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22">
+        <v>78939.6717881074</v>
+      </c>
+      <c r="E12" s="23">
+        <v>531734.10323755804</v>
+      </c>
+      <c r="F12" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22">
+        <v>77184.285607607613</v>
+      </c>
+      <c r="E13" s="23">
+        <v>446023.63183301012</v>
+      </c>
+      <c r="F13" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
+        <v>89622.710963227044</v>
+      </c>
+      <c r="E14" s="23">
+        <v>528287.4082887175</v>
+      </c>
+      <c r="F14" s="24">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137E4EB2-C10D-9941-9DC3-F6F0B6A199AC}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="C3:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>84894.439775848135</v>
+      </c>
+      <c r="E5" s="23">
+        <v>377568.53161599621</v>
+      </c>
+      <c r="F5" s="24">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="22">
+        <v>89935.625991104214</v>
+      </c>
+      <c r="K5" s="23">
+        <v>609179.67887003196</v>
+      </c>
+      <c r="L5" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>75033.878891853718</v>
+      </c>
+      <c r="E6" s="23">
+        <v>441057.07440301537</v>
+      </c>
+      <c r="F6" s="24">
+        <v>25</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="22">
+        <v>70580.953947642294</v>
+      </c>
+      <c r="K6" s="23">
+        <v>375141.45316443569</v>
+      </c>
+      <c r="L6" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>68117.185197557963</v>
+      </c>
+      <c r="E7" s="23">
+        <v>469939.26531446126</v>
+      </c>
+      <c r="F7" s="24">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="22">
+        <v>84419.953662897111</v>
+      </c>
+      <c r="K7" s="23">
+        <v>491295.57808884303</v>
+      </c>
+      <c r="L7" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>67436.606918268648</v>
+      </c>
+      <c r="E8" s="23">
+        <v>299227.10236638621</v>
+      </c>
+      <c r="F8" s="24">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="22">
+        <v>78010.065587043486</v>
+      </c>
+      <c r="K8" s="23">
+        <v>532943.74208315206</v>
+      </c>
+      <c r="L8" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>88004.968658709156</v>
+      </c>
+      <c r="E9" s="23">
+        <v>539673.9543232685</v>
+      </c>
+      <c r="F9" s="24">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="22">
+        <v>81494.731882517866</v>
+      </c>
+      <c r="K9" s="23">
+        <v>498872.68885071704</v>
+      </c>
+      <c r="L9" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22">
+        <v>72639.557119375895</v>
+      </c>
+      <c r="E10" s="23">
+        <v>504813.56962450175</v>
+      </c>
+      <c r="F10" s="24">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="22">
+        <v>74571.193755760178</v>
+      </c>
+      <c r="K10" s="23">
+        <v>352225.61361133627</v>
+      </c>
+      <c r="L10" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22">
+        <v>93968.576663796819</v>
+      </c>
+      <c r="E11" s="23">
+        <v>490059.4185389225</v>
+      </c>
+      <c r="F11" s="24">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="22">
+        <v>80309.907443839096</v>
+      </c>
+      <c r="K11" s="23">
+        <v>549468.58705229219</v>
+      </c>
+      <c r="L11" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22">
+        <v>69831.10303412858</v>
+      </c>
+      <c r="E12" s="23">
+        <v>447612.25715691107</v>
+      </c>
+      <c r="F12" s="24">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="22">
+        <v>66692.088863362296</v>
+      </c>
+      <c r="K12" s="23">
+        <v>396338.70581471984</v>
+      </c>
+      <c r="L12" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22">
+        <v>56577.190855749723</v>
+      </c>
+      <c r="E13" s="23">
+        <v>385564.21553171007</v>
+      </c>
+      <c r="F13" s="24">
+        <v>19</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="22">
+        <v>72376.719259592879</v>
+      </c>
+      <c r="K13" s="23">
+        <v>402789.83665307704</v>
+      </c>
+      <c r="L13" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
+        <v>89233.947168899147</v>
+      </c>
+      <c r="E14" s="23">
+        <v>408344.79101593466</v>
+      </c>
+      <c r="F14" s="24">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="22">
+        <v>87046.530711546366</v>
+      </c>
+      <c r="K14" s="23">
+        <v>351597.09841241088</v>
+      </c>
+      <c r="L14" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A72E17-3201-8B44-83DF-473675030C58}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="C3:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>85847.240798816099</v>
+      </c>
+      <c r="E5" s="23">
+        <v>452076.6555122881</v>
+      </c>
+      <c r="F5" s="24">
+        <v>29</v>
+      </c>
+      <c r="G5" s="22">
+        <v>78277.943092896123</v>
+      </c>
+      <c r="H5" s="23">
+        <v>521496.9629220264</v>
+      </c>
+      <c r="I5" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>75689.545165997479</v>
+      </c>
+      <c r="E6" s="23">
+        <v>488521.91908086406</v>
+      </c>
+      <c r="F6" s="24">
+        <v>25</v>
+      </c>
+      <c r="G6" s="22">
+        <v>103762.33799618379</v>
+      </c>
+      <c r="H6" s="23">
+        <v>701063.97317987226</v>
+      </c>
+      <c r="I6" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>86531.276166514988</v>
+      </c>
+      <c r="E7" s="23">
+        <v>558954.77460594871</v>
+      </c>
+      <c r="F7" s="24">
+        <v>29</v>
+      </c>
+      <c r="G7" s="22">
+        <v>77552.104553232624</v>
+      </c>
+      <c r="H7" s="23">
+        <v>342470.70755990536</v>
+      </c>
+      <c r="I7" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>76962.830422088955</v>
+      </c>
+      <c r="E8" s="23">
+        <v>324347.16912772128</v>
+      </c>
+      <c r="F8" s="24">
+        <v>26</v>
+      </c>
+      <c r="G8" s="22">
+        <v>90959.401568190893</v>
+      </c>
+      <c r="H8" s="23">
+        <v>368778.26249041071</v>
+      </c>
+      <c r="I8" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>73123.279021584822</v>
+      </c>
+      <c r="E9" s="23">
+        <v>318216.46661383851</v>
+      </c>
+      <c r="F9" s="24">
+        <v>24</v>
+      </c>
+      <c r="G9" s="22">
+        <v>84253.58144467276</v>
+      </c>
+      <c r="H9" s="23">
+        <v>507739.3773037846</v>
+      </c>
+      <c r="I9" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22">
+        <v>77124.641355245971</v>
+      </c>
+      <c r="E10" s="23">
+        <v>368381.04221688519</v>
+      </c>
+      <c r="F10" s="24">
+        <v>26</v>
+      </c>
+      <c r="G10" s="22">
+        <v>76131.882385663135</v>
+      </c>
+      <c r="H10" s="23">
+        <v>524891.19571106927</v>
+      </c>
+      <c r="I10" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22">
+        <v>83443.468995768097</v>
+      </c>
+      <c r="E11" s="23">
+        <v>483040.66278462292</v>
+      </c>
+      <c r="F11" s="24">
+        <v>28</v>
+      </c>
+      <c r="G11" s="22">
+        <v>85259.776811008589</v>
+      </c>
+      <c r="H11" s="23">
+        <v>428084.27589710546</v>
+      </c>
+      <c r="I11" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22">
+        <v>77071.804969955047</v>
+      </c>
+      <c r="E12" s="23">
+        <v>405941.18294134422</v>
+      </c>
+      <c r="F12" s="24">
+        <v>26</v>
+      </c>
+      <c r="G12" s="22">
+        <v>76168.196953654755</v>
+      </c>
+      <c r="H12" s="23">
+        <v>383066.69383394532</v>
+      </c>
+      <c r="I12" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22">
+        <v>85914.716686178595</v>
+      </c>
+      <c r="E13" s="23">
+        <v>407995.5373439939</v>
+      </c>
+      <c r="F13" s="24">
+        <v>29</v>
+      </c>
+      <c r="G13" s="22">
+        <v>83034.157722996417</v>
+      </c>
+      <c r="H13" s="23">
+        <v>381915.14663384756</v>
+      </c>
+      <c r="I13" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
+        <v>89224.992456477819</v>
+      </c>
+      <c r="E14" s="23">
+        <v>561994.41114110989</v>
+      </c>
+      <c r="F14" s="24">
+        <v>30</v>
+      </c>
+      <c r="G14" s="22">
+        <v>80387.150424058666</v>
+      </c>
+      <c r="H14" s="23">
+        <v>467688.31414876034</v>
+      </c>
+      <c r="I14" s="24">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1FD8E7-566A-1248-BF21-A4B42734425F}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="C3:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>82134.244758149056</v>
+      </c>
+      <c r="E5" s="23">
+        <v>500584.11074411724</v>
+      </c>
+      <c r="F5" s="24">
+        <v>27</v>
+      </c>
+      <c r="G5" s="22">
+        <v>78656.136737278546</v>
+      </c>
+      <c r="H5" s="23">
+        <v>455627.8333117771</v>
+      </c>
+      <c r="I5" s="24">
+        <v>26</v>
+      </c>
+      <c r="J5" s="22">
+        <v>79374.009783906018</v>
+      </c>
+      <c r="K5" s="23">
+        <v>551495.95234604052</v>
+      </c>
+      <c r="L5" s="24">
+        <v>26</v>
+      </c>
+      <c r="M5" s="22">
+        <v>66142.240468325457</v>
+      </c>
+      <c r="N5" s="23">
+        <v>307000.16509009665</v>
+      </c>
+      <c r="O5" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>60133.220653241515</v>
+      </c>
+      <c r="E6" s="23">
+        <v>381652.93428310141</v>
+      </c>
+      <c r="F6" s="24">
+        <v>20</v>
+      </c>
+      <c r="G6" s="22">
+        <v>80440.500544903</v>
+      </c>
+      <c r="H6" s="23">
+        <v>413969.45055146562</v>
+      </c>
+      <c r="I6" s="24">
+        <v>27</v>
+      </c>
+      <c r="J6" s="22">
+        <v>78840.827781186745</v>
+      </c>
+      <c r="K6" s="23">
+        <v>506752.93037470698</v>
+      </c>
+      <c r="L6" s="24">
+        <v>26</v>
+      </c>
+      <c r="M6" s="22">
+        <v>83137.082174657247</v>
+      </c>
+      <c r="N6" s="23">
+        <v>531695.53195121197</v>
+      </c>
+      <c r="O6" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>70321.834264926671</v>
+      </c>
+      <c r="E7" s="23">
+        <v>336950.988634184</v>
+      </c>
+      <c r="F7" s="24">
+        <v>23</v>
+      </c>
+      <c r="G7" s="22">
+        <v>71602.901010848786</v>
+      </c>
+      <c r="H7" s="23">
+        <v>376406.13111651171</v>
+      </c>
+      <c r="I7" s="24">
+        <v>24</v>
+      </c>
+      <c r="J7" s="22">
+        <v>83783.568606653309</v>
+      </c>
+      <c r="K7" s="23">
+        <v>449267.01783594606</v>
+      </c>
+      <c r="L7" s="24">
+        <v>28</v>
+      </c>
+      <c r="M7" s="22">
+        <v>81518.967617620161</v>
+      </c>
+      <c r="N7" s="23">
+        <v>385431.65554357786</v>
+      </c>
+      <c r="O7" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>95896.445168530656</v>
+      </c>
+      <c r="E8" s="23">
+        <v>448733.90837638022</v>
+      </c>
+      <c r="F8" s="24">
+        <v>32</v>
+      </c>
+      <c r="G8" s="22">
+        <v>53406.600802035478</v>
+      </c>
+      <c r="H8" s="23">
+        <v>326468.34290537762</v>
+      </c>
+      <c r="I8" s="24">
+        <v>18</v>
+      </c>
+      <c r="J8" s="22">
+        <v>64225.581324059407</v>
+      </c>
+      <c r="K8" s="23">
+        <v>314668.16395168309</v>
+      </c>
+      <c r="L8" s="24">
+        <v>21</v>
+      </c>
+      <c r="M8" s="22">
+        <v>85745.148733979237</v>
+      </c>
+      <c r="N8" s="23">
+        <v>502753.78747207084</v>
+      </c>
+      <c r="O8" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>89183.946051964071</v>
+      </c>
+      <c r="E9" s="23">
+        <v>429886.67430769379</v>
+      </c>
+      <c r="F9" s="24">
+        <v>30</v>
+      </c>
+      <c r="G9" s="22">
+        <v>87151.178920551931</v>
+      </c>
+      <c r="H9" s="23">
+        <v>441279.63319944375</v>
+      </c>
+      <c r="I9" s="24">
+        <v>29</v>
+      </c>
+      <c r="J9" s="22">
+        <v>77648.478108079114</v>
+      </c>
+      <c r="K9" s="23">
+        <v>493147.36270132451</v>
+      </c>
+      <c r="L9" s="24">
+        <v>26</v>
+      </c>
+      <c r="M9" s="22">
+        <v>73586.162555855466</v>
+      </c>
+      <c r="N9" s="23">
+        <v>423980.53679806861</v>
+      </c>
+      <c r="O9" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22">
+        <v>83350.254133215829</v>
+      </c>
+      <c r="E10" s="23">
+        <v>535983.90673012612</v>
+      </c>
+      <c r="F10" s="24">
+        <v>28</v>
+      </c>
+      <c r="G10" s="22">
+        <v>65333.934660796862</v>
+      </c>
+      <c r="H10" s="23">
+        <v>430641.89412894245</v>
+      </c>
+      <c r="I10" s="24">
+        <v>22</v>
+      </c>
+      <c r="J10" s="22">
+        <v>89474.660822116406</v>
+      </c>
+      <c r="K10" s="23">
+        <v>472361.59292950394</v>
+      </c>
+      <c r="L10" s="24">
+        <v>30</v>
+      </c>
+      <c r="M10" s="22">
+        <v>67073.899500366475</v>
+      </c>
+      <c r="N10" s="23">
+        <v>466047.0781324266</v>
+      </c>
+      <c r="O10" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22">
+        <v>85970.570453745706</v>
+      </c>
+      <c r="E11" s="23">
+        <v>406753.06319645705</v>
+      </c>
+      <c r="F11" s="24">
+        <v>29</v>
+      </c>
+      <c r="G11" s="22">
+        <v>82888.773494460082</v>
+      </c>
+      <c r="H11" s="23">
+        <v>507899.05140090844</v>
+      </c>
+      <c r="I11" s="24">
+        <v>28</v>
+      </c>
+      <c r="J11" s="22">
+        <v>74417.545873644209</v>
+      </c>
+      <c r="K11" s="23">
+        <v>456591.33139442868</v>
+      </c>
+      <c r="L11" s="24">
+        <v>25</v>
+      </c>
+      <c r="M11" s="22">
+        <v>58880.979811305835</v>
+      </c>
+      <c r="N11" s="23">
+        <v>319071.27510094416</v>
+      </c>
+      <c r="O11" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22">
+        <v>81495.934568706449</v>
+      </c>
+      <c r="E12" s="23">
+        <v>569964.5859585125</v>
+      </c>
+      <c r="F12" s="24">
+        <v>27</v>
+      </c>
+      <c r="G12" s="22">
+        <v>84976.252310582538</v>
+      </c>
+      <c r="H12" s="23">
+        <v>393518.62800841278</v>
+      </c>
+      <c r="I12" s="24">
+        <v>28</v>
+      </c>
+      <c r="J12" s="22">
+        <v>80476.995659056221</v>
+      </c>
+      <c r="K12" s="23">
+        <v>509286.24082780909</v>
+      </c>
+      <c r="L12" s="24">
+        <v>27</v>
+      </c>
+      <c r="M12" s="22">
+        <v>63425.805352228097</v>
+      </c>
+      <c r="N12" s="23">
+        <v>324997.62307399238</v>
+      </c>
+      <c r="O12" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22">
+        <v>86968.235965000029</v>
+      </c>
+      <c r="E13" s="23">
+        <v>420096.65008537995</v>
+      </c>
+      <c r="F13" s="24">
+        <v>29</v>
+      </c>
+      <c r="G13" s="22">
+        <v>81257.640852225377</v>
+      </c>
+      <c r="H13" s="23">
+        <v>462841.79337680637</v>
+      </c>
+      <c r="I13" s="24">
+        <v>27</v>
+      </c>
+      <c r="J13" s="22">
+        <v>69378.68402184869</v>
+      </c>
+      <c r="K13" s="23">
+        <v>325477.61227015586</v>
+      </c>
+      <c r="L13" s="24">
+        <v>23</v>
+      </c>
+      <c r="M13" s="22">
+        <v>86635.227002353146</v>
+      </c>
+      <c r="N13" s="23">
+        <v>564070.58155115717</v>
+      </c>
+      <c r="O13" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
+        <v>95286.578077006881</v>
+      </c>
+      <c r="E14" s="23">
+        <v>574897.98981745087</v>
+      </c>
+      <c r="F14" s="24">
+        <v>32</v>
+      </c>
+      <c r="G14" s="22">
+        <v>78773.067383549802</v>
+      </c>
+      <c r="H14" s="23">
+        <v>475961.44022702915</v>
+      </c>
+      <c r="I14" s="24">
+        <v>26</v>
+      </c>
+      <c r="J14" s="22">
+        <v>90242.124593229455</v>
+      </c>
+      <c r="K14" s="23">
+        <v>371756.8840425621</v>
+      </c>
+      <c r="L14" s="24">
+        <v>30</v>
+      </c>
+      <c r="M14" s="22">
+        <v>96275.459407618167</v>
+      </c>
+      <c r="N14" s="23">
+        <v>596042.12817122717</v>
+      </c>
+      <c r="O14" s="24">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB152EA-EE71-6040-BAF6-E226721E1304}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="B3:O40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>83944.340056217479</v>
+      </c>
+      <c r="E5" s="23">
+        <v>438116.85391479597</v>
+      </c>
+      <c r="F5" s="24">
+        <v>28</v>
+      </c>
+      <c r="G5" s="22">
+        <v>85282.880931859734</v>
+      </c>
+      <c r="H5" s="23">
+        <v>525745.35916077276</v>
+      </c>
+      <c r="I5" s="24">
+        <v>28</v>
+      </c>
+      <c r="J5" s="22">
+        <v>76083.982301698823</v>
+      </c>
+      <c r="K5" s="23">
+        <v>465288.6787531781</v>
+      </c>
+      <c r="L5" s="24">
+        <v>25</v>
+      </c>
+      <c r="M5" s="22">
+        <v>85663.285126776536</v>
+      </c>
+      <c r="N5" s="23">
+        <v>570849.58755665924</v>
+      </c>
+      <c r="O5" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>83116.672572420546</v>
+      </c>
+      <c r="E6" s="23">
+        <v>385962.0015495852</v>
+      </c>
+      <c r="F6" s="24">
+        <v>28</v>
+      </c>
+      <c r="G6" s="22">
+        <v>67883.141766391578</v>
+      </c>
+      <c r="H6" s="23">
+        <v>333564.05579935742</v>
+      </c>
+      <c r="I6" s="24">
+        <v>23</v>
+      </c>
+      <c r="J6" s="22">
+        <v>56945.271546912896</v>
+      </c>
+      <c r="K6" s="23">
+        <v>351289.28443145589</v>
+      </c>
+      <c r="L6" s="24">
+        <v>19</v>
+      </c>
+      <c r="M6" s="22">
+        <v>64248.599623973743</v>
+      </c>
+      <c r="N6" s="23">
+        <v>317538.22056774545</v>
+      </c>
+      <c r="O6" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>69795.09607929668</v>
+      </c>
+      <c r="E7" s="23">
+        <v>367244.35129857739</v>
+      </c>
+      <c r="F7" s="24">
+        <v>23</v>
+      </c>
+      <c r="G7" s="22">
+        <v>76679.490144178359</v>
+      </c>
+      <c r="H7" s="23">
+        <v>387134.51758620428</v>
+      </c>
+      <c r="I7" s="24">
+        <v>26</v>
+      </c>
+      <c r="J7" s="22">
+        <v>75790.939554156939</v>
+      </c>
+      <c r="K7" s="23">
+        <v>478969.60791675479</v>
+      </c>
+      <c r="L7" s="24">
+        <v>25</v>
+      </c>
+      <c r="M7" s="22">
+        <v>79907.022025797734</v>
+      </c>
+      <c r="N7" s="23">
+        <v>369695.9780779655</v>
+      </c>
+      <c r="O7" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="22">
+        <v>58559.65669775998</v>
+      </c>
+      <c r="E8" s="23">
+        <v>337890.18759769184</v>
+      </c>
+      <c r="F8" s="24">
+        <v>20</v>
+      </c>
+      <c r="G8" s="22">
+        <v>73351.66393839012</v>
+      </c>
+      <c r="H8" s="23">
+        <v>399468.65495355817</v>
+      </c>
+      <c r="I8" s="24">
+        <v>24</v>
+      </c>
+      <c r="J8" s="22">
+        <v>57574.683187172632</v>
+      </c>
+      <c r="K8" s="23">
+        <v>362708.6638639858</v>
+      </c>
+      <c r="L8" s="24">
+        <v>19</v>
+      </c>
+      <c r="M8" s="22">
+        <v>81010.631717195298</v>
+      </c>
+      <c r="N8" s="23">
+        <v>358130.10608501843</v>
+      </c>
+      <c r="O8" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>80427.250490006132</v>
+      </c>
+      <c r="E9" s="23">
+        <v>441577.7867050615</v>
+      </c>
+      <c r="F9" s="24">
+        <v>27</v>
+      </c>
+      <c r="G9" s="22">
+        <v>74084.018859084288</v>
+      </c>
+      <c r="H9" s="23">
+        <v>365664.19229935715</v>
+      </c>
+      <c r="I9" s="24">
+        <v>25</v>
+      </c>
+      <c r="J9" s="22">
+        <v>87763.614999315847</v>
+      </c>
+      <c r="K9" s="23">
+        <v>437514.41697562113</v>
+      </c>
+      <c r="L9" s="24">
+        <v>29</v>
+      </c>
+      <c r="M9" s="22">
+        <v>71143.17482443864</v>
+      </c>
+      <c r="N9" s="23">
+        <v>318400.06903851934</v>
+      </c>
+      <c r="O9" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22">
+        <v>83715.876074599786</v>
+      </c>
+      <c r="E10" s="23">
+        <v>427619.64295505919</v>
+      </c>
+      <c r="F10" s="24">
+        <v>28</v>
+      </c>
+      <c r="G10" s="22">
+        <v>90159.007265854656</v>
+      </c>
+      <c r="H10" s="23">
+        <v>509993.23972711485</v>
+      </c>
+      <c r="I10" s="24">
+        <v>30</v>
+      </c>
+      <c r="J10" s="22">
+        <v>66919.267285610636</v>
+      </c>
+      <c r="K10" s="23">
+        <v>280317.56575126277</v>
+      </c>
+      <c r="L10" s="24">
+        <v>22</v>
+      </c>
+      <c r="M10" s="22">
+        <v>67302.393699320121</v>
+      </c>
+      <c r="N10" s="23">
+        <v>380752.63732948917</v>
+      </c>
+      <c r="O10" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22">
+        <v>82913.447745512996</v>
+      </c>
+      <c r="E11" s="23">
+        <v>346173.21888063761</v>
+      </c>
+      <c r="F11" s="24">
+        <v>28</v>
+      </c>
+      <c r="G11" s="22">
+        <v>90029.419592678998</v>
+      </c>
+      <c r="H11" s="23">
+        <v>542272.81351012213</v>
+      </c>
+      <c r="I11" s="24">
+        <v>30</v>
+      </c>
+      <c r="J11" s="22">
+        <v>83813.805074711709</v>
+      </c>
+      <c r="K11" s="23">
+        <v>411123.66996303102</v>
+      </c>
+      <c r="L11" s="24">
+        <v>28</v>
+      </c>
+      <c r="M11" s="22">
+        <v>87082.903599994272</v>
+      </c>
+      <c r="N11" s="23">
+        <v>582216.08916367416</v>
+      </c>
+      <c r="O11" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22">
+        <v>78379.461667461015</v>
+      </c>
+      <c r="E12" s="23">
+        <v>427638.87358267151</v>
+      </c>
+      <c r="F12" s="24">
+        <v>26</v>
+      </c>
+      <c r="G12" s="22">
+        <v>93508.808641802592</v>
+      </c>
+      <c r="H12" s="23">
+        <v>587085.90020145872</v>
+      </c>
+      <c r="I12" s="24">
+        <v>31</v>
+      </c>
+      <c r="J12" s="22">
+        <v>75357.601744191314</v>
+      </c>
+      <c r="K12" s="23">
+        <v>313164.89621528541</v>
+      </c>
+      <c r="L12" s="24">
+        <v>25</v>
+      </c>
+      <c r="M12" s="22">
+        <v>93954.151967475322</v>
+      </c>
+      <c r="N12" s="23">
+        <v>484885.92716696317</v>
+      </c>
+      <c r="O12" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22">
+        <v>70942.113434209386</v>
+      </c>
+      <c r="E13" s="23">
+        <v>401667.38469749631</v>
+      </c>
+      <c r="F13" s="24">
+        <v>24</v>
+      </c>
+      <c r="G13" s="22">
+        <v>75892.455539424394</v>
+      </c>
+      <c r="H13" s="23">
+        <v>437865.35968034802</v>
+      </c>
+      <c r="I13" s="24">
+        <v>25</v>
+      </c>
+      <c r="J13" s="22">
+        <v>70954.273345021953</v>
+      </c>
+      <c r="K13" s="23">
+        <v>395368.80340841849</v>
+      </c>
+      <c r="L13" s="24">
+        <v>24</v>
+      </c>
+      <c r="M13" s="22">
+        <v>66176.241443405743</v>
+      </c>
+      <c r="N13" s="23">
+        <v>265692.98162758863</v>
+      </c>
+      <c r="O13" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
+        <v>91812.971949243976</v>
+      </c>
+      <c r="E14" s="23">
+        <v>636520.886042987</v>
+      </c>
+      <c r="F14" s="24">
+        <v>31</v>
+      </c>
+      <c r="G14" s="22">
+        <v>84417.220021454676</v>
+      </c>
+      <c r="H14" s="23">
+        <v>516551.7957225641</v>
+      </c>
+      <c r="I14" s="24">
+        <v>28</v>
+      </c>
+      <c r="J14" s="22">
+        <v>74176.448066811892</v>
+      </c>
+      <c r="K14" s="23">
+        <v>326981.21828627068</v>
+      </c>
+      <c r="L14" s="24">
+        <v>25</v>
+      </c>
+      <c r="M14" s="22">
+        <v>73917.087676227427</v>
+      </c>
+      <c r="N14" s="23">
+        <v>328111.19834365248</v>
+      </c>
+      <c r="O14" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22">
+        <v>87713.526016571035</v>
+      </c>
+      <c r="E18" s="23">
+        <v>456116.36761423538</v>
+      </c>
+      <c r="F18" s="24">
+        <v>29</v>
+      </c>
+      <c r="G18" s="22">
+        <v>88775.163308408111</v>
+      </c>
+      <c r="H18" s="23">
+        <v>568648.16918728733</v>
+      </c>
+      <c r="I18" s="24">
+        <v>29</v>
+      </c>
+      <c r="J18" s="22">
+        <v>81611.677790978545</v>
+      </c>
+      <c r="K18" s="23">
+        <v>508951.12469695753</v>
+      </c>
+      <c r="L18" s="24">
+        <v>26</v>
+      </c>
+      <c r="M18" s="22">
+        <v>92479.468878063388</v>
+      </c>
+      <c r="N18" s="23">
+        <v>598101.13970617717</v>
+      </c>
+      <c r="O18" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>90098.678042039595</v>
+      </c>
+      <c r="E19" s="23">
+        <v>391722.38022681285</v>
+      </c>
+      <c r="F19" s="24">
+        <v>29</v>
+      </c>
+      <c r="G19" s="22">
+        <v>69438.751692284204</v>
+      </c>
+      <c r="H19" s="23">
+        <v>343008.42541313195</v>
+      </c>
+      <c r="I19" s="24">
+        <v>24</v>
+      </c>
+      <c r="J19" s="22">
+        <v>59767.097329895107</v>
+      </c>
+      <c r="K19" s="23">
+        <v>372685.67696436512</v>
+      </c>
+      <c r="L19" s="24">
+        <v>20</v>
+      </c>
+      <c r="M19" s="22">
+        <v>68394.013079605676</v>
+      </c>
+      <c r="N19" s="23">
+        <v>337463.85181835643</v>
+      </c>
+      <c r="O19" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22">
+        <v>74907.17497949439</v>
+      </c>
+      <c r="E20" s="23">
+        <v>378662.49699546816</v>
+      </c>
+      <c r="F20" s="24">
+        <v>24</v>
+      </c>
+      <c r="G20" s="22">
+        <v>79776.246462187031</v>
+      </c>
+      <c r="H20" s="23">
+        <v>422713.33944242657</v>
+      </c>
+      <c r="I20" s="24">
+        <v>27</v>
+      </c>
+      <c r="J20" s="22">
+        <v>77869.826047043127</v>
+      </c>
+      <c r="K20" s="23">
+        <v>505175.54942925251</v>
+      </c>
+      <c r="L20" s="24">
+        <v>26</v>
+      </c>
+      <c r="M20" s="22">
+        <v>81195.446204842301</v>
+      </c>
+      <c r="N20" s="23">
+        <v>397042.56113604555</v>
+      </c>
+      <c r="O20" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="22">
+        <v>63103.22827791176</v>
+      </c>
+      <c r="E21" s="23">
+        <v>351848.5744957049</v>
+      </c>
+      <c r="F21" s="24">
+        <v>21</v>
+      </c>
+      <c r="G21" s="22">
+        <v>75121.343194136469</v>
+      </c>
+      <c r="H21" s="23">
+        <v>423715.65483413084</v>
+      </c>
+      <c r="I21" s="24">
+        <v>25</v>
+      </c>
+      <c r="J21" s="22">
+        <v>62779.369053580253</v>
+      </c>
+      <c r="K21" s="23">
+        <v>372105.08166434086</v>
+      </c>
+      <c r="L21" s="24">
+        <v>20</v>
+      </c>
+      <c r="M21" s="22">
+        <v>85399.307215165754</v>
+      </c>
+      <c r="N21" s="23">
+        <v>374786.23023522412</v>
+      </c>
+      <c r="O21" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="22">
+        <v>84601.714817686487</v>
+      </c>
+      <c r="E22" s="23">
+        <v>481648.96380978019</v>
+      </c>
+      <c r="F22" s="24">
+        <v>28</v>
+      </c>
+      <c r="G22" s="22">
+        <v>80570.487348387469</v>
+      </c>
+      <c r="H22" s="23">
+        <v>379627.00072354049</v>
+      </c>
+      <c r="I22" s="24">
+        <v>26</v>
+      </c>
+      <c r="J22" s="22">
+        <v>94988.349948353818</v>
+      </c>
+      <c r="K22" s="23">
+        <v>437973.42673006014</v>
+      </c>
+      <c r="L22" s="24">
+        <v>30</v>
+      </c>
+      <c r="M22" s="22">
+        <v>72391.675831716202</v>
+      </c>
+      <c r="N22" s="23">
+        <v>344844.89243733435</v>
+      </c>
+      <c r="O22" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="22">
+        <v>90652.649990321661</v>
+      </c>
+      <c r="E23" s="23">
+        <v>462189.45095537853</v>
+      </c>
+      <c r="F23" s="24">
+        <v>29</v>
+      </c>
+      <c r="G23" s="22">
+        <v>94138.876009503903</v>
+      </c>
+      <c r="H23" s="23">
+        <v>527378.7727741804</v>
+      </c>
+      <c r="I23" s="24">
+        <v>31</v>
+      </c>
+      <c r="J23" s="22">
+        <v>71722.755700163572</v>
+      </c>
+      <c r="K23" s="23">
+        <v>289034.00170085335</v>
+      </c>
+      <c r="L23" s="24">
+        <v>23</v>
+      </c>
+      <c r="M23" s="22">
+        <v>71190.704546186709</v>
+      </c>
+      <c r="N23" s="23">
+        <v>388759.35412184714</v>
+      </c>
+      <c r="O23" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="22">
+        <v>86270.727880427672</v>
+      </c>
+      <c r="E24" s="23">
+        <v>353883.21314408258</v>
+      </c>
+      <c r="F24" s="24">
+        <v>29</v>
+      </c>
+      <c r="G24" s="22">
+        <v>91388.814509364398</v>
+      </c>
+      <c r="H24" s="23">
+        <v>576151.44055309251</v>
+      </c>
+      <c r="I24" s="24">
+        <v>31</v>
+      </c>
+      <c r="J24" s="22">
+        <v>87148.714233345134</v>
+      </c>
+      <c r="K24" s="23">
+        <v>429101.60249408626</v>
+      </c>
+      <c r="L24" s="24">
+        <v>29</v>
+      </c>
+      <c r="M24" s="22">
+        <v>91749.460048046458</v>
+      </c>
+      <c r="N24" s="23">
+        <v>635572.18586867675</v>
+      </c>
+      <c r="O24" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="22">
+        <v>79488.911432061926</v>
+      </c>
+      <c r="E25" s="23">
+        <v>442291.20058901934</v>
+      </c>
+      <c r="F25" s="24">
+        <v>27</v>
+      </c>
+      <c r="G25" s="22">
+        <v>94642.441017362755</v>
+      </c>
+      <c r="H25" s="23">
+        <v>626396.53208903025</v>
+      </c>
+      <c r="I25" s="24">
+        <v>32</v>
+      </c>
+      <c r="J25" s="22">
+        <v>81969.26335647954</v>
+      </c>
+      <c r="K25" s="23">
+        <v>326724.87778983405</v>
+      </c>
+      <c r="L25" s="24">
+        <v>26</v>
+      </c>
+      <c r="M25" s="22">
+        <v>100806.00301644845</v>
+      </c>
+      <c r="N25" s="23">
+        <v>532173.42001500947</v>
+      </c>
+      <c r="O25" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
+      <c r="D26" s="22">
+        <v>74123.155267978495</v>
+      </c>
+      <c r="E26" s="23">
+        <v>409751.38260230434</v>
+      </c>
+      <c r="F26" s="24">
+        <v>25</v>
+      </c>
+      <c r="G26" s="22">
+        <v>81271.654164510226</v>
+      </c>
+      <c r="H26" s="23">
+        <v>469518.2290742831</v>
+      </c>
+      <c r="I26" s="24">
+        <v>26</v>
+      </c>
+      <c r="J26" s="22">
+        <v>75430.682165877952</v>
+      </c>
+      <c r="K26" s="23">
+        <v>412625.73332100397</v>
+      </c>
+      <c r="L26" s="24">
+        <v>25</v>
+      </c>
+      <c r="M26" s="22">
+        <v>66230.966389838504</v>
+      </c>
+      <c r="N26" s="23">
+        <v>269763.67364489246</v>
+      </c>
+      <c r="O26" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="22">
+        <v>99547.927265717706</v>
+      </c>
+      <c r="E27" s="23">
+        <v>685712.11788974202</v>
+      </c>
+      <c r="F27" s="24">
+        <v>32</v>
+      </c>
+      <c r="G27" s="22">
+        <v>91258.395638613671</v>
+      </c>
+      <c r="H27" s="23">
+        <v>542079.8087691766</v>
+      </c>
+      <c r="I27" s="24">
+        <v>29</v>
+      </c>
+      <c r="J27" s="22">
+        <v>75139.264753614218</v>
+      </c>
+      <c r="K27" s="23">
+        <v>353006.91685623373</v>
+      </c>
+      <c r="L27" s="24">
+        <v>26</v>
+      </c>
+      <c r="M27" s="22">
+        <v>75809.808927517646</v>
+      </c>
+      <c r="N27" s="23">
+        <v>329717.74462576438</v>
+      </c>
+      <c r="O27" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="14">
+        <v>94550.768446008791</v>
+      </c>
+      <c r="E31" s="14">
+        <v>491733.03392998659</v>
+      </c>
+      <c r="F31" s="5">
+        <v>30</v>
+      </c>
+      <c r="G31" s="14">
+        <v>90315.571073518498</v>
+      </c>
+      <c r="H31" s="14">
+        <v>621616.73268957937</v>
+      </c>
+      <c r="I31" s="5">
+        <v>30</v>
+      </c>
+      <c r="J31" s="14">
+        <v>84158.43730843543</v>
+      </c>
+      <c r="K31" s="14">
+        <v>533126.88011996914</v>
+      </c>
+      <c r="L31" s="5">
+        <v>27</v>
+      </c>
+      <c r="M31" s="14">
+        <v>96249.819260163902</v>
+      </c>
+      <c r="N31" s="14">
+        <v>638188.1434041519</v>
+      </c>
+      <c r="O31" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14">
+        <v>93466.226840096409</v>
+      </c>
+      <c r="E32" s="14">
+        <v>400876.89718626539</v>
+      </c>
+      <c r="F32" s="5">
+        <v>30</v>
+      </c>
+      <c r="G32" s="14">
+        <v>73571.488405051394</v>
+      </c>
+      <c r="H32" s="14">
+        <v>347524.7226414248</v>
+      </c>
+      <c r="I32" s="5">
+        <v>25</v>
+      </c>
+      <c r="J32" s="14">
+        <v>61370.62317411993</v>
+      </c>
+      <c r="K32" s="14">
+        <v>391263.95081303606</v>
+      </c>
+      <c r="L32" s="5">
+        <v>21</v>
+      </c>
+      <c r="M32" s="14">
+        <v>70630.095553386636</v>
+      </c>
+      <c r="N32" s="14">
+        <v>369887.47482755216</v>
+      </c>
+      <c r="O32" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="14">
+        <v>78792.450909099527</v>
+      </c>
+      <c r="E33" s="14">
+        <v>398116.58322381787</v>
+      </c>
+      <c r="F33" s="5">
+        <v>25</v>
+      </c>
+      <c r="G33" s="14">
+        <v>86512.120153134572</v>
+      </c>
+      <c r="H33" s="14">
+        <v>428731.90939125855</v>
+      </c>
+      <c r="I33" s="5">
+        <v>28</v>
+      </c>
+      <c r="J33" s="14">
+        <v>78002.654284554781</v>
+      </c>
+      <c r="K33" s="14">
+        <v>525874.88280237478</v>
+      </c>
+      <c r="L33" s="5">
+        <v>27</v>
+      </c>
+      <c r="M33" s="14">
+        <v>83653.485859356937</v>
+      </c>
+      <c r="N33" s="14">
+        <v>401449.56468929024</v>
+      </c>
+      <c r="O33" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="14">
+        <v>63546.164554612675</v>
+      </c>
+      <c r="E34" s="14">
+        <v>377364.7979123125</v>
+      </c>
+      <c r="F34" s="5">
+        <v>22</v>
+      </c>
+      <c r="G34" s="14">
+        <v>79648.128136380357</v>
+      </c>
+      <c r="H34" s="14">
+        <v>440199.21102365776</v>
+      </c>
+      <c r="I34" s="5">
+        <v>26</v>
+      </c>
+      <c r="J34" s="14">
+        <v>64149.290917704413</v>
+      </c>
+      <c r="K34" s="14">
+        <v>396202.890556339</v>
+      </c>
+      <c r="L34" s="5">
+        <v>21</v>
+      </c>
+      <c r="M34" s="14">
+        <v>91838.18940586246</v>
+      </c>
+      <c r="N34" s="14">
+        <v>392933.45665981295</v>
+      </c>
+      <c r="O34" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="14">
+        <v>85757.503401679598</v>
+      </c>
+      <c r="E35" s="14">
+        <v>512657.18684196216</v>
+      </c>
+      <c r="F35" s="5">
+        <v>29</v>
+      </c>
+      <c r="G35" s="14">
+        <v>86309.371197783985</v>
+      </c>
+      <c r="H35" s="14">
+        <v>394146.89332089602</v>
+      </c>
+      <c r="I35" s="5">
+        <v>27</v>
+      </c>
+      <c r="J35" s="14">
+        <v>102413.86792544338</v>
+      </c>
+      <c r="K35" s="14">
+        <v>474479.48492648883</v>
+      </c>
+      <c r="L35" s="5">
+        <v>31</v>
+      </c>
+      <c r="M35" s="14">
+        <v>72465.41367264546</v>
+      </c>
+      <c r="N35" s="14">
+        <v>377307.78277924558</v>
+      </c>
+      <c r="O35" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="D36" s="14">
+        <v>98583.507974344844</v>
+      </c>
+      <c r="E36" s="14">
+        <v>486155.50207534782</v>
+      </c>
+      <c r="F36" s="5">
+        <v>30</v>
+      </c>
+      <c r="G36" s="14">
+        <v>97212.915298604057</v>
+      </c>
+      <c r="H36" s="14">
+        <v>537524.12781290687</v>
+      </c>
+      <c r="I36" s="5">
+        <v>32</v>
+      </c>
+      <c r="J36" s="14">
+        <v>73526.374932124862</v>
+      </c>
+      <c r="K36" s="14">
+        <v>295245.15200758021</v>
+      </c>
+      <c r="L36" s="5">
+        <v>24</v>
+      </c>
+      <c r="M36" s="14">
+        <v>71952.121929441142</v>
+      </c>
+      <c r="N36" s="14">
+        <v>396306.01090236683</v>
+      </c>
+      <c r="O36" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="14">
+        <v>90931.963455075704</v>
+      </c>
+      <c r="E37" s="14">
+        <v>375592.54859789513</v>
+      </c>
+      <c r="F37" s="5">
+        <v>30</v>
+      </c>
+      <c r="G37" s="14">
+        <v>97373.229851221156</v>
+      </c>
+      <c r="H37" s="14">
+        <v>577273.16866884136</v>
+      </c>
+      <c r="I37" s="5">
+        <v>32</v>
+      </c>
+      <c r="J37" s="14">
+        <v>91992.179892413886</v>
+      </c>
+      <c r="K37" s="14">
+        <v>445687.60691223026</v>
+      </c>
+      <c r="L37" s="5">
+        <v>30</v>
+      </c>
+      <c r="M37" s="14">
+        <v>97057.286938352423</v>
+      </c>
+      <c r="N37" s="14">
+        <v>679084.58153132128</v>
+      </c>
+      <c r="O37" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="14">
+        <v>84489.317843840778</v>
+      </c>
+      <c r="E38" s="14">
+        <v>469827.53468940436</v>
+      </c>
+      <c r="F38" s="5">
+        <v>28</v>
+      </c>
+      <c r="G38" s="14">
+        <v>102815.51908844631</v>
+      </c>
+      <c r="H38" s="14">
+        <v>665163.70854929998</v>
+      </c>
+      <c r="I38" s="5">
+        <v>33</v>
+      </c>
+      <c r="J38" s="14">
+        <v>89710.201945272958</v>
+      </c>
+      <c r="K38" s="14">
+        <v>327730.65097765788</v>
+      </c>
+      <c r="L38" s="5">
+        <v>27</v>
+      </c>
+      <c r="M38" s="14">
+        <v>104760.58711412236</v>
+      </c>
+      <c r="N38" s="14">
+        <v>576011.12657158973</v>
+      </c>
+      <c r="O38" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>9</v>
+      </c>
+      <c r="D39" s="14">
+        <v>78950.358338850041</v>
+      </c>
+      <c r="E39" s="14">
+        <v>410493.33637987846</v>
+      </c>
+      <c r="F39" s="5">
+        <v>26</v>
+      </c>
+      <c r="G39" s="14">
+        <v>85683.495122729728</v>
+      </c>
+      <c r="H39" s="14">
+        <v>476251.35301841953</v>
+      </c>
+      <c r="I39" s="5">
+        <v>27</v>
+      </c>
+      <c r="J39" s="14">
+        <v>75856.13853077103</v>
+      </c>
+      <c r="K39" s="14">
+        <v>442466.29562008369</v>
+      </c>
+      <c r="L39" s="5">
+        <v>26</v>
+      </c>
+      <c r="M39" s="14">
+        <v>69638.040987640939</v>
+      </c>
+      <c r="N39" s="14">
+        <v>275236.82744717452</v>
+      </c>
+      <c r="O39" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="14">
+        <v>102706.6231802539</v>
+      </c>
+      <c r="E40" s="14">
+        <v>744367.44716733543</v>
+      </c>
+      <c r="F40" s="5">
+        <v>33</v>
+      </c>
+      <c r="G40" s="14">
+        <v>92296.99745120421</v>
+      </c>
+      <c r="H40" s="14">
+        <v>551864.70863362774</v>
+      </c>
+      <c r="I40" s="5">
+        <v>30</v>
+      </c>
+      <c r="J40" s="14">
+        <v>75803.705952712087</v>
+      </c>
+      <c r="K40" s="14">
+        <v>368405.59706164978</v>
+      </c>
+      <c r="L40" s="5">
+        <v>27</v>
+      </c>
+      <c r="M40" s="14">
+        <v>79804.126270013425</v>
+      </c>
+      <c r="N40" s="14">
+        <v>354518.2879129441</v>
+      </c>
+      <c r="O40" s="5">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51877837-A945-E442-8664-88ED3F649F6E}">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFFFF00"/>
@@ -6605,123 +9370,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E01E7A2-6C77-A24A-A027-97262D7379F7}">
-  <sheetPr codeName="Sheet15">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>200</v>
-      </c>
-      <c r="F3" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="1">
-        <f>SUMPRODUCT(D3:F3,D4:F4)</f>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="1">
-        <f>SUM(D3:F3)</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1">
-        <f>P12/P13</f>
-        <v>6.333333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{790EBD22-FBB9-0E43-8B10-DBC07C8785C7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6788,6 +9436,123 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E01E7A2-6C77-A24A-A027-97262D7379F7}">
+  <sheetPr codeName="Sheet15">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="1">
+        <f>SUMPRODUCT(D3:F3,D4:F4)</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="1">
+        <f>SUM(D3:F3)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1">
+        <f>P12/P13</f>
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{790EBD22-FBB9-0E43-8B10-DBC07C8785C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/C4RM_Class_03.xlsx
+++ b/C4RM_Class_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2F1974-A8A1-144D-92C4-2F21B5693267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53313812-4F08-4143-8355-5E11D34F70B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
+    <workbookView xWindow="-11500" yWindow="-21600" windowWidth="51200" windowHeight="21600" xr2:uid="{C1F6CC11-1296-3549-A35C-9D74F73648F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,27 @@
     <sheet name="Array2Range1" sheetId="41" r:id="rId5"/>
     <sheet name="Array2Range2" sheetId="42" r:id="rId6"/>
     <sheet name="Computer" sheetId="31" r:id="rId7"/>
-    <sheet name="DataObj1" sheetId="32" state="hidden" r:id="rId8"/>
-    <sheet name="DataObj2" sheetId="33" state="hidden" r:id="rId9"/>
-    <sheet name="DataObj3" sheetId="34" state="hidden" r:id="rId10"/>
-    <sheet name="DataObj4" sheetId="35" state="hidden" r:id="rId11"/>
-    <sheet name="DataObj5" sheetId="36" state="hidden" r:id="rId12"/>
-    <sheet name="ByRef_ByVal" sheetId="52" r:id="rId13"/>
-    <sheet name="DatatypePassing" sheetId="53" r:id="rId14"/>
-    <sheet name="Freeware" sheetId="54" r:id="rId15"/>
-    <sheet name="Lists" sheetId="43" r:id="rId16"/>
-    <sheet name="DataFrames" sheetId="44" r:id="rId17"/>
-    <sheet name="Prework4NextClass" sheetId="28" r:id="rId18"/>
-    <sheet name="InClassProjects" sheetId="49" r:id="rId19"/>
-    <sheet name="qBondPrice" sheetId="50" r:id="rId20"/>
-    <sheet name="qBondDuration" sheetId="51" r:id="rId21"/>
-    <sheet name="SQL_Time" sheetId="55" r:id="rId22"/>
-    <sheet name="Appendix " sheetId="56" r:id="rId23"/>
-    <sheet name="DataObj1 (2)" sheetId="57" r:id="rId24"/>
-    <sheet name="DataObj2 (2)" sheetId="58" r:id="rId25"/>
-    <sheet name="DataObj3 (2)" sheetId="59" r:id="rId26"/>
-    <sheet name="DataObj4 (2)" sheetId="60" r:id="rId27"/>
-    <sheet name="DataObj5 (2)" sheetId="61" r:id="rId28"/>
-    <sheet name="qDataTypes1" sheetId="15" state="hidden" r:id="rId29"/>
-    <sheet name="qDataTypes2" sheetId="30" state="hidden" r:id="rId30"/>
+    <sheet name="ByRef_ByVal" sheetId="52" r:id="rId8"/>
+    <sheet name="DatatypePassing" sheetId="53" r:id="rId9"/>
+    <sheet name="Freeware" sheetId="54" r:id="rId10"/>
+    <sheet name="Lists" sheetId="43" r:id="rId11"/>
+    <sheet name="DataFrames" sheetId="44" r:id="rId12"/>
+    <sheet name="Prework4NextClass" sheetId="28" r:id="rId13"/>
+    <sheet name="InClassProjects" sheetId="49" r:id="rId14"/>
+    <sheet name="qBondPrice" sheetId="50" r:id="rId15"/>
+    <sheet name="qBondDuration" sheetId="51" r:id="rId16"/>
+    <sheet name="SQL_Time" sheetId="55" r:id="rId17"/>
+    <sheet name="Appendix " sheetId="56" r:id="rId18"/>
+    <sheet name="DataObj1" sheetId="57" r:id="rId19"/>
+    <sheet name="DataObj2" sheetId="58" r:id="rId20"/>
+    <sheet name="DataObj3" sheetId="59" r:id="rId21"/>
+    <sheet name="DataObj4" sheetId="60" r:id="rId22"/>
+    <sheet name="DataObj5" sheetId="61" r:id="rId23"/>
+    <sheet name="qDataTypes1" sheetId="15" state="hidden" r:id="rId24"/>
+    <sheet name="qDataTypes2" sheetId="30" state="hidden" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId31"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
     <definedName name="couponRate">[1]qFunctions!$C$8</definedName>
@@ -73,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>ytm</t>
   </si>
@@ -286,9 +281,6 @@
   </si>
   <si>
     <t>ReDim</t>
-  </si>
-  <si>
-    <t>Preview of R</t>
   </si>
   <si>
     <t>Big Picture</t>
@@ -455,6 +447,9 @@
   </si>
   <si>
     <t>SQLite Online</t>
+  </si>
+  <si>
+    <t>Preview of Python</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1414,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
@@ -1442,8 +1437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13525500" y="558800"/>
-          <a:ext cx="4292600" cy="4622800"/>
+          <a:off x="12966700" y="558800"/>
+          <a:ext cx="4851400" cy="4622800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,42 +1493,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>getBondPrice = function(y, face, couponRate, m, ppy=1){</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>  #</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Y</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>our work</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>  return(0) #Your answer</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> (not 0)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
+            <a:t>Function PriceBond(y, face, couponRate, m, Optional ppy = 1)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -1575,36 +1536,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>ppy = 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>x = getBondPrice(y, face, couponRate, m,  1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>round(x) == 2170604</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>x = getBondPrice(y, face, couponRate, m,  2)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>round(x) == 2171686</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1698,42 +1629,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>getBondDuration = function(y, face, couponRate, m){</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>  #</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Y</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>our work</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>  return(0) #Your answer</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> (not 0)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
+            <a:t>Function getBondDuration(y, face, couponRate, m, Optional ppy = 1)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -1769,21 +1666,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>m = 10</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>x = getBondDuration(y, face, couponRate, m)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>round(x,2) == 8.51</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3224,7 +3106,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3234,2251 +3116,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFFBCF3-E0DD-4843-8F8D-0FBD21392101}">
-  <sheetPr codeName="Sheet20">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="C3:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>85847.240798816099</v>
-      </c>
-      <c r="E5" s="14">
-        <v>452076.6555122881</v>
-      </c>
-      <c r="F5" s="5">
-        <v>29</v>
-      </c>
-      <c r="G5" s="14">
-        <v>78277.943092896123</v>
-      </c>
-      <c r="H5" s="14">
-        <v>521496.9629220264</v>
-      </c>
-      <c r="I5" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>75689.545165997479</v>
-      </c>
-      <c r="E6" s="14">
-        <v>488521.91908086406</v>
-      </c>
-      <c r="F6" s="5">
-        <v>25</v>
-      </c>
-      <c r="G6" s="14">
-        <v>103762.33799618379</v>
-      </c>
-      <c r="H6" s="14">
-        <v>701063.97317987226</v>
-      </c>
-      <c r="I6" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14">
-        <v>86531.276166514988</v>
-      </c>
-      <c r="E7" s="14">
-        <v>558954.77460594871</v>
-      </c>
-      <c r="F7" s="5">
-        <v>29</v>
-      </c>
-      <c r="G7" s="14">
-        <v>77552.104553232624</v>
-      </c>
-      <c r="H7" s="14">
-        <v>342470.70755990536</v>
-      </c>
-      <c r="I7" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>76962.830422088955</v>
-      </c>
-      <c r="E8" s="14">
-        <v>324347.16912772128</v>
-      </c>
-      <c r="F8" s="5">
-        <v>26</v>
-      </c>
-      <c r="G8" s="14">
-        <v>90959.401568190893</v>
-      </c>
-      <c r="H8" s="14">
-        <v>368778.26249041071</v>
-      </c>
-      <c r="I8" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>73123.279021584822</v>
-      </c>
-      <c r="E9" s="14">
-        <v>318216.46661383851</v>
-      </c>
-      <c r="F9" s="5">
-        <v>24</v>
-      </c>
-      <c r="G9" s="14">
-        <v>84253.58144467276</v>
-      </c>
-      <c r="H9" s="14">
-        <v>507739.3773037846</v>
-      </c>
-      <c r="I9" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14">
-        <v>77124.641355245971</v>
-      </c>
-      <c r="E10" s="14">
-        <v>368381.04221688519</v>
-      </c>
-      <c r="F10" s="5">
-        <v>26</v>
-      </c>
-      <c r="G10" s="14">
-        <v>76131.882385663135</v>
-      </c>
-      <c r="H10" s="14">
-        <v>524891.19571106927</v>
-      </c>
-      <c r="I10" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14">
-        <v>83443.468995768097</v>
-      </c>
-      <c r="E11" s="14">
-        <v>483040.66278462292</v>
-      </c>
-      <c r="F11" s="5">
-        <v>28</v>
-      </c>
-      <c r="G11" s="14">
-        <v>85259.776811008589</v>
-      </c>
-      <c r="H11" s="14">
-        <v>428084.27589710546</v>
-      </c>
-      <c r="I11" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14">
-        <v>77071.804969955047</v>
-      </c>
-      <c r="E12" s="14">
-        <v>405941.18294134422</v>
-      </c>
-      <c r="F12" s="5">
-        <v>26</v>
-      </c>
-      <c r="G12" s="14">
-        <v>76168.196953654755</v>
-      </c>
-      <c r="H12" s="14">
-        <v>383066.69383394532</v>
-      </c>
-      <c r="I12" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14">
-        <v>85914.716686178595</v>
-      </c>
-      <c r="E13" s="14">
-        <v>407995.5373439939</v>
-      </c>
-      <c r="F13" s="5">
-        <v>29</v>
-      </c>
-      <c r="G13" s="14">
-        <v>83034.157722996417</v>
-      </c>
-      <c r="H13" s="14">
-        <v>381915.14663384756</v>
-      </c>
-      <c r="I13" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14">
-        <v>89224.992456477819</v>
-      </c>
-      <c r="E14" s="14">
-        <v>561994.41114110989</v>
-      </c>
-      <c r="F14" s="5">
-        <v>30</v>
-      </c>
-      <c r="G14" s="14">
-        <v>80387.150424058666</v>
-      </c>
-      <c r="H14" s="14">
-        <v>467688.31414876034</v>
-      </c>
-      <c r="I14" s="5">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8E64D4-6792-2C4A-9C76-EA34CCB90981}">
-  <sheetPr codeName="Sheet21">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="C3:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>82134.244758149056</v>
-      </c>
-      <c r="E5" s="14">
-        <v>500584.11074411724</v>
-      </c>
-      <c r="F5" s="5">
-        <v>27</v>
-      </c>
-      <c r="G5" s="14">
-        <v>78656.136737278546</v>
-      </c>
-      <c r="H5" s="14">
-        <v>455627.8333117771</v>
-      </c>
-      <c r="I5" s="5">
-        <v>26</v>
-      </c>
-      <c r="J5" s="14">
-        <v>79374.009783906018</v>
-      </c>
-      <c r="K5" s="14">
-        <v>551495.95234604052</v>
-      </c>
-      <c r="L5" s="5">
-        <v>26</v>
-      </c>
-      <c r="M5" s="14">
-        <v>66142.240468325457</v>
-      </c>
-      <c r="N5" s="14">
-        <v>307000.16509009665</v>
-      </c>
-      <c r="O5" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>60133.220653241515</v>
-      </c>
-      <c r="E6" s="14">
-        <v>381652.93428310141</v>
-      </c>
-      <c r="F6" s="5">
-        <v>20</v>
-      </c>
-      <c r="G6" s="14">
-        <v>80440.500544903</v>
-      </c>
-      <c r="H6" s="14">
-        <v>413969.45055146562</v>
-      </c>
-      <c r="I6" s="5">
-        <v>27</v>
-      </c>
-      <c r="J6" s="14">
-        <v>78840.827781186745</v>
-      </c>
-      <c r="K6" s="14">
-        <v>506752.93037470698</v>
-      </c>
-      <c r="L6" s="5">
-        <v>26</v>
-      </c>
-      <c r="M6" s="14">
-        <v>83137.082174657247</v>
-      </c>
-      <c r="N6" s="14">
-        <v>531695.53195121197</v>
-      </c>
-      <c r="O6" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14">
-        <v>70321.834264926671</v>
-      </c>
-      <c r="E7" s="14">
-        <v>336950.988634184</v>
-      </c>
-      <c r="F7" s="5">
-        <v>23</v>
-      </c>
-      <c r="G7" s="14">
-        <v>71602.901010848786</v>
-      </c>
-      <c r="H7" s="14">
-        <v>376406.13111651171</v>
-      </c>
-      <c r="I7" s="5">
-        <v>24</v>
-      </c>
-      <c r="J7" s="14">
-        <v>83783.568606653309</v>
-      </c>
-      <c r="K7" s="14">
-        <v>449267.01783594606</v>
-      </c>
-      <c r="L7" s="5">
-        <v>28</v>
-      </c>
-      <c r="M7" s="14">
-        <v>81518.967617620161</v>
-      </c>
-      <c r="N7" s="14">
-        <v>385431.65554357786</v>
-      </c>
-      <c r="O7" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>95896.445168530656</v>
-      </c>
-      <c r="E8" s="14">
-        <v>448733.90837638022</v>
-      </c>
-      <c r="F8" s="5">
-        <v>32</v>
-      </c>
-      <c r="G8" s="14">
-        <v>53406.600802035478</v>
-      </c>
-      <c r="H8" s="14">
-        <v>326468.34290537762</v>
-      </c>
-      <c r="I8" s="5">
-        <v>18</v>
-      </c>
-      <c r="J8" s="14">
-        <v>64225.581324059407</v>
-      </c>
-      <c r="K8" s="14">
-        <v>314668.16395168309</v>
-      </c>
-      <c r="L8" s="5">
-        <v>21</v>
-      </c>
-      <c r="M8" s="14">
-        <v>85745.148733979237</v>
-      </c>
-      <c r="N8" s="14">
-        <v>502753.78747207084</v>
-      </c>
-      <c r="O8" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>89183.946051964071</v>
-      </c>
-      <c r="E9" s="14">
-        <v>429886.67430769379</v>
-      </c>
-      <c r="F9" s="5">
-        <v>30</v>
-      </c>
-      <c r="G9" s="14">
-        <v>87151.178920551931</v>
-      </c>
-      <c r="H9" s="14">
-        <v>441279.63319944375</v>
-      </c>
-      <c r="I9" s="5">
-        <v>29</v>
-      </c>
-      <c r="J9" s="14">
-        <v>77648.478108079114</v>
-      </c>
-      <c r="K9" s="14">
-        <v>493147.36270132451</v>
-      </c>
-      <c r="L9" s="5">
-        <v>26</v>
-      </c>
-      <c r="M9" s="14">
-        <v>73586.162555855466</v>
-      </c>
-      <c r="N9" s="14">
-        <v>423980.53679806861</v>
-      </c>
-      <c r="O9" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14">
-        <v>83350.254133215829</v>
-      </c>
-      <c r="E10" s="14">
-        <v>535983.90673012612</v>
-      </c>
-      <c r="F10" s="5">
-        <v>28</v>
-      </c>
-      <c r="G10" s="14">
-        <v>65333.934660796862</v>
-      </c>
-      <c r="H10" s="14">
-        <v>430641.89412894245</v>
-      </c>
-      <c r="I10" s="5">
-        <v>22</v>
-      </c>
-      <c r="J10" s="14">
-        <v>89474.660822116406</v>
-      </c>
-      <c r="K10" s="14">
-        <v>472361.59292950394</v>
-      </c>
-      <c r="L10" s="5">
-        <v>30</v>
-      </c>
-      <c r="M10" s="14">
-        <v>67073.899500366475</v>
-      </c>
-      <c r="N10" s="14">
-        <v>466047.0781324266</v>
-      </c>
-      <c r="O10" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14">
-        <v>85970.570453745706</v>
-      </c>
-      <c r="E11" s="14">
-        <v>406753.06319645705</v>
-      </c>
-      <c r="F11" s="5">
-        <v>29</v>
-      </c>
-      <c r="G11" s="14">
-        <v>82888.773494460082</v>
-      </c>
-      <c r="H11" s="14">
-        <v>507899.05140090844</v>
-      </c>
-      <c r="I11" s="5">
-        <v>28</v>
-      </c>
-      <c r="J11" s="14">
-        <v>74417.545873644209</v>
-      </c>
-      <c r="K11" s="14">
-        <v>456591.33139442868</v>
-      </c>
-      <c r="L11" s="5">
-        <v>25</v>
-      </c>
-      <c r="M11" s="14">
-        <v>58880.979811305835</v>
-      </c>
-      <c r="N11" s="14">
-        <v>319071.27510094416</v>
-      </c>
-      <c r="O11" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14">
-        <v>81495.934568706449</v>
-      </c>
-      <c r="E12" s="14">
-        <v>569964.5859585125</v>
-      </c>
-      <c r="F12" s="5">
-        <v>27</v>
-      </c>
-      <c r="G12" s="14">
-        <v>84976.252310582538</v>
-      </c>
-      <c r="H12" s="14">
-        <v>393518.62800841278</v>
-      </c>
-      <c r="I12" s="5">
-        <v>28</v>
-      </c>
-      <c r="J12" s="14">
-        <v>80476.995659056221</v>
-      </c>
-      <c r="K12" s="14">
-        <v>509286.24082780909</v>
-      </c>
-      <c r="L12" s="5">
-        <v>27</v>
-      </c>
-      <c r="M12" s="14">
-        <v>63425.805352228097</v>
-      </c>
-      <c r="N12" s="14">
-        <v>324997.62307399238</v>
-      </c>
-      <c r="O12" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14">
-        <v>86968.235965000029</v>
-      </c>
-      <c r="E13" s="14">
-        <v>420096.65008537995</v>
-      </c>
-      <c r="F13" s="5">
-        <v>29</v>
-      </c>
-      <c r="G13" s="14">
-        <v>81257.640852225377</v>
-      </c>
-      <c r="H13" s="14">
-        <v>462841.79337680637</v>
-      </c>
-      <c r="I13" s="5">
-        <v>27</v>
-      </c>
-      <c r="J13" s="14">
-        <v>69378.68402184869</v>
-      </c>
-      <c r="K13" s="14">
-        <v>325477.61227015586</v>
-      </c>
-      <c r="L13" s="5">
-        <v>23</v>
-      </c>
-      <c r="M13" s="14">
-        <v>86635.227002353146</v>
-      </c>
-      <c r="N13" s="14">
-        <v>564070.58155115717</v>
-      </c>
-      <c r="O13" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14">
-        <v>95286.578077006881</v>
-      </c>
-      <c r="E14" s="14">
-        <v>574897.98981745087</v>
-      </c>
-      <c r="F14" s="5">
-        <v>32</v>
-      </c>
-      <c r="G14" s="14">
-        <v>78773.067383549802</v>
-      </c>
-      <c r="H14" s="14">
-        <v>475961.44022702915</v>
-      </c>
-      <c r="I14" s="5">
-        <v>26</v>
-      </c>
-      <c r="J14" s="14">
-        <v>90242.124593229455</v>
-      </c>
-      <c r="K14" s="14">
-        <v>371756.8840425621</v>
-      </c>
-      <c r="L14" s="5">
-        <v>30</v>
-      </c>
-      <c r="M14" s="14">
-        <v>96275.459407618167</v>
-      </c>
-      <c r="N14" s="14">
-        <v>596042.12817122717</v>
-      </c>
-      <c r="O14" s="5">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB00934F-94FC-2A4A-B536-DA0F4E3171EC}">
-  <sheetPr codeName="Sheet22">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="B3:O40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>83944.340056217479</v>
-      </c>
-      <c r="E5" s="14">
-        <v>438116.85391479597</v>
-      </c>
-      <c r="F5" s="5">
-        <v>28</v>
-      </c>
-      <c r="G5" s="14">
-        <v>85282.880931859734</v>
-      </c>
-      <c r="H5" s="14">
-        <v>525745.35916077276</v>
-      </c>
-      <c r="I5" s="5">
-        <v>28</v>
-      </c>
-      <c r="J5" s="14">
-        <v>76083.982301698823</v>
-      </c>
-      <c r="K5" s="14">
-        <v>465288.6787531781</v>
-      </c>
-      <c r="L5" s="5">
-        <v>25</v>
-      </c>
-      <c r="M5" s="14">
-        <v>85663.285126776536</v>
-      </c>
-      <c r="N5" s="14">
-        <v>570849.58755665924</v>
-      </c>
-      <c r="O5" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>83116.672572420546</v>
-      </c>
-      <c r="E6" s="14">
-        <v>385962.0015495852</v>
-      </c>
-      <c r="F6" s="5">
-        <v>28</v>
-      </c>
-      <c r="G6" s="14">
-        <v>67883.141766391578</v>
-      </c>
-      <c r="H6" s="14">
-        <v>333564.05579935742</v>
-      </c>
-      <c r="I6" s="5">
-        <v>23</v>
-      </c>
-      <c r="J6" s="14">
-        <v>56945.271546912896</v>
-      </c>
-      <c r="K6" s="14">
-        <v>351289.28443145589</v>
-      </c>
-      <c r="L6" s="5">
-        <v>19</v>
-      </c>
-      <c r="M6" s="14">
-        <v>64248.599623973743</v>
-      </c>
-      <c r="N6" s="14">
-        <v>317538.22056774545</v>
-      </c>
-      <c r="O6" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14">
-        <v>69795.09607929668</v>
-      </c>
-      <c r="E7" s="14">
-        <v>367244.35129857739</v>
-      </c>
-      <c r="F7" s="5">
-        <v>23</v>
-      </c>
-      <c r="G7" s="14">
-        <v>76679.490144178359</v>
-      </c>
-      <c r="H7" s="14">
-        <v>387134.51758620428</v>
-      </c>
-      <c r="I7" s="5">
-        <v>26</v>
-      </c>
-      <c r="J7" s="14">
-        <v>75790.939554156939</v>
-      </c>
-      <c r="K7" s="14">
-        <v>478969.60791675479</v>
-      </c>
-      <c r="L7" s="5">
-        <v>25</v>
-      </c>
-      <c r="M7" s="14">
-        <v>79907.022025797734</v>
-      </c>
-      <c r="N7" s="14">
-        <v>369695.9780779655</v>
-      </c>
-      <c r="O7" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>58559.65669775998</v>
-      </c>
-      <c r="E8" s="14">
-        <v>337890.18759769184</v>
-      </c>
-      <c r="F8" s="5">
-        <v>20</v>
-      </c>
-      <c r="G8" s="14">
-        <v>73351.66393839012</v>
-      </c>
-      <c r="H8" s="14">
-        <v>399468.65495355817</v>
-      </c>
-      <c r="I8" s="5">
-        <v>24</v>
-      </c>
-      <c r="J8" s="14">
-        <v>57574.683187172632</v>
-      </c>
-      <c r="K8" s="14">
-        <v>362708.6638639858</v>
-      </c>
-      <c r="L8" s="5">
-        <v>19</v>
-      </c>
-      <c r="M8" s="14">
-        <v>81010.631717195298</v>
-      </c>
-      <c r="N8" s="14">
-        <v>358130.10608501843</v>
-      </c>
-      <c r="O8" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>80427.250490006132</v>
-      </c>
-      <c r="E9" s="14">
-        <v>441577.7867050615</v>
-      </c>
-      <c r="F9" s="5">
-        <v>27</v>
-      </c>
-      <c r="G9" s="14">
-        <v>74084.018859084288</v>
-      </c>
-      <c r="H9" s="14">
-        <v>365664.19229935715</v>
-      </c>
-      <c r="I9" s="5">
-        <v>25</v>
-      </c>
-      <c r="J9" s="14">
-        <v>87763.614999315847</v>
-      </c>
-      <c r="K9" s="14">
-        <v>437514.41697562113</v>
-      </c>
-      <c r="L9" s="5">
-        <v>29</v>
-      </c>
-      <c r="M9" s="14">
-        <v>71143.17482443864</v>
-      </c>
-      <c r="N9" s="14">
-        <v>318400.06903851934</v>
-      </c>
-      <c r="O9" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14">
-        <v>83715.876074599786</v>
-      </c>
-      <c r="E10" s="14">
-        <v>427619.64295505919</v>
-      </c>
-      <c r="F10" s="5">
-        <v>28</v>
-      </c>
-      <c r="G10" s="14">
-        <v>90159.007265854656</v>
-      </c>
-      <c r="H10" s="14">
-        <v>509993.23972711485</v>
-      </c>
-      <c r="I10" s="5">
-        <v>30</v>
-      </c>
-      <c r="J10" s="14">
-        <v>66919.267285610636</v>
-      </c>
-      <c r="K10" s="14">
-        <v>280317.56575126277</v>
-      </c>
-      <c r="L10" s="5">
-        <v>22</v>
-      </c>
-      <c r="M10" s="14">
-        <v>67302.393699320121</v>
-      </c>
-      <c r="N10" s="14">
-        <v>380752.63732948917</v>
-      </c>
-      <c r="O10" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14">
-        <v>82913.447745512996</v>
-      </c>
-      <c r="E11" s="14">
-        <v>346173.21888063761</v>
-      </c>
-      <c r="F11" s="5">
-        <v>28</v>
-      </c>
-      <c r="G11" s="14">
-        <v>90029.419592678998</v>
-      </c>
-      <c r="H11" s="14">
-        <v>542272.81351012213</v>
-      </c>
-      <c r="I11" s="5">
-        <v>30</v>
-      </c>
-      <c r="J11" s="14">
-        <v>83813.805074711709</v>
-      </c>
-      <c r="K11" s="14">
-        <v>411123.66996303102</v>
-      </c>
-      <c r="L11" s="5">
-        <v>28</v>
-      </c>
-      <c r="M11" s="14">
-        <v>87082.903599994272</v>
-      </c>
-      <c r="N11" s="14">
-        <v>582216.08916367416</v>
-      </c>
-      <c r="O11" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14">
-        <v>78379.461667461015</v>
-      </c>
-      <c r="E12" s="14">
-        <v>427638.87358267151</v>
-      </c>
-      <c r="F12" s="5">
-        <v>26</v>
-      </c>
-      <c r="G12" s="14">
-        <v>93508.808641802592</v>
-      </c>
-      <c r="H12" s="14">
-        <v>587085.90020145872</v>
-      </c>
-      <c r="I12" s="5">
-        <v>31</v>
-      </c>
-      <c r="J12" s="14">
-        <v>75357.601744191314</v>
-      </c>
-      <c r="K12" s="14">
-        <v>313164.89621528541</v>
-      </c>
-      <c r="L12" s="5">
-        <v>25</v>
-      </c>
-      <c r="M12" s="14">
-        <v>93954.151967475322</v>
-      </c>
-      <c r="N12" s="14">
-        <v>484885.92716696317</v>
-      </c>
-      <c r="O12" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14">
-        <v>70942.113434209386</v>
-      </c>
-      <c r="E13" s="14">
-        <v>401667.38469749631</v>
-      </c>
-      <c r="F13" s="5">
-        <v>24</v>
-      </c>
-      <c r="G13" s="14">
-        <v>75892.455539424394</v>
-      </c>
-      <c r="H13" s="14">
-        <v>437865.35968034802</v>
-      </c>
-      <c r="I13" s="5">
-        <v>25</v>
-      </c>
-      <c r="J13" s="14">
-        <v>70954.273345021953</v>
-      </c>
-      <c r="K13" s="14">
-        <v>395368.80340841849</v>
-      </c>
-      <c r="L13" s="5">
-        <v>24</v>
-      </c>
-      <c r="M13" s="14">
-        <v>66176.241443405743</v>
-      </c>
-      <c r="N13" s="14">
-        <v>265692.98162758863</v>
-      </c>
-      <c r="O13" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14">
-        <v>91812.971949243976</v>
-      </c>
-      <c r="E14" s="14">
-        <v>636520.886042987</v>
-      </c>
-      <c r="F14" s="5">
-        <v>31</v>
-      </c>
-      <c r="G14" s="14">
-        <v>84417.220021454676</v>
-      </c>
-      <c r="H14" s="14">
-        <v>516551.7957225641</v>
-      </c>
-      <c r="I14" s="5">
-        <v>28</v>
-      </c>
-      <c r="J14" s="14">
-        <v>74176.448066811892</v>
-      </c>
-      <c r="K14" s="14">
-        <v>326981.21828627068</v>
-      </c>
-      <c r="L14" s="5">
-        <v>25</v>
-      </c>
-      <c r="M14" s="14">
-        <v>73917.087676227427</v>
-      </c>
-      <c r="N14" s="14">
-        <v>328111.19834365248</v>
-      </c>
-      <c r="O14" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14">
-        <v>87713.526016571035</v>
-      </c>
-      <c r="E18" s="14">
-        <v>456116.36761423538</v>
-      </c>
-      <c r="F18" s="5">
-        <v>29</v>
-      </c>
-      <c r="G18" s="14">
-        <v>88775.163308408111</v>
-      </c>
-      <c r="H18" s="14">
-        <v>568648.16918728733</v>
-      </c>
-      <c r="I18" s="5">
-        <v>29</v>
-      </c>
-      <c r="J18" s="14">
-        <v>81611.677790978545</v>
-      </c>
-      <c r="K18" s="14">
-        <v>508951.12469695753</v>
-      </c>
-      <c r="L18" s="5">
-        <v>26</v>
-      </c>
-      <c r="M18" s="14">
-        <v>92479.468878063388</v>
-      </c>
-      <c r="N18" s="14">
-        <v>598101.13970617717</v>
-      </c>
-      <c r="O18" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="14">
-        <v>90098.678042039595</v>
-      </c>
-      <c r="E19" s="14">
-        <v>391722.38022681285</v>
-      </c>
-      <c r="F19" s="5">
-        <v>29</v>
-      </c>
-      <c r="G19" s="14">
-        <v>69438.751692284204</v>
-      </c>
-      <c r="H19" s="14">
-        <v>343008.42541313195</v>
-      </c>
-      <c r="I19" s="5">
-        <v>24</v>
-      </c>
-      <c r="J19" s="14">
-        <v>59767.097329895107</v>
-      </c>
-      <c r="K19" s="14">
-        <v>372685.67696436512</v>
-      </c>
-      <c r="L19" s="5">
-        <v>20</v>
-      </c>
-      <c r="M19" s="14">
-        <v>68394.013079605676</v>
-      </c>
-      <c r="N19" s="14">
-        <v>337463.85181835643</v>
-      </c>
-      <c r="O19" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="14">
-        <v>74907.17497949439</v>
-      </c>
-      <c r="E20" s="14">
-        <v>378662.49699546816</v>
-      </c>
-      <c r="F20" s="5">
-        <v>24</v>
-      </c>
-      <c r="G20" s="14">
-        <v>79776.246462187031</v>
-      </c>
-      <c r="H20" s="14">
-        <v>422713.33944242657</v>
-      </c>
-      <c r="I20" s="5">
-        <v>27</v>
-      </c>
-      <c r="J20" s="14">
-        <v>77869.826047043127</v>
-      </c>
-      <c r="K20" s="14">
-        <v>505175.54942925251</v>
-      </c>
-      <c r="L20" s="5">
-        <v>26</v>
-      </c>
-      <c r="M20" s="14">
-        <v>81195.446204842301</v>
-      </c>
-      <c r="N20" s="14">
-        <v>397042.56113604555</v>
-      </c>
-      <c r="O20" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="14">
-        <v>63103.22827791176</v>
-      </c>
-      <c r="E21" s="14">
-        <v>351848.5744957049</v>
-      </c>
-      <c r="F21" s="5">
-        <v>21</v>
-      </c>
-      <c r="G21" s="14">
-        <v>75121.343194136469</v>
-      </c>
-      <c r="H21" s="14">
-        <v>423715.65483413084</v>
-      </c>
-      <c r="I21" s="5">
-        <v>25</v>
-      </c>
-      <c r="J21" s="14">
-        <v>62779.369053580253</v>
-      </c>
-      <c r="K21" s="14">
-        <v>372105.08166434086</v>
-      </c>
-      <c r="L21" s="5">
-        <v>20</v>
-      </c>
-      <c r="M21" s="14">
-        <v>85399.307215165754</v>
-      </c>
-      <c r="N21" s="14">
-        <v>374786.23023522412</v>
-      </c>
-      <c r="O21" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
-      <c r="D22" s="14">
-        <v>84601.714817686487</v>
-      </c>
-      <c r="E22" s="14">
-        <v>481648.96380978019</v>
-      </c>
-      <c r="F22" s="5">
-        <v>28</v>
-      </c>
-      <c r="G22" s="14">
-        <v>80570.487348387469</v>
-      </c>
-      <c r="H22" s="14">
-        <v>379627.00072354049</v>
-      </c>
-      <c r="I22" s="5">
-        <v>26</v>
-      </c>
-      <c r="J22" s="14">
-        <v>94988.349948353818</v>
-      </c>
-      <c r="K22" s="14">
-        <v>437973.42673006014</v>
-      </c>
-      <c r="L22" s="5">
-        <v>30</v>
-      </c>
-      <c r="M22" s="14">
-        <v>72391.675831716202</v>
-      </c>
-      <c r="N22" s="14">
-        <v>344844.89243733435</v>
-      </c>
-      <c r="O22" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-      <c r="D23" s="14">
-        <v>90652.649990321661</v>
-      </c>
-      <c r="E23" s="14">
-        <v>462189.45095537853</v>
-      </c>
-      <c r="F23" s="5">
-        <v>29</v>
-      </c>
-      <c r="G23" s="14">
-        <v>94138.876009503903</v>
-      </c>
-      <c r="H23" s="14">
-        <v>527378.7727741804</v>
-      </c>
-      <c r="I23" s="5">
-        <v>31</v>
-      </c>
-      <c r="J23" s="14">
-        <v>71722.755700163572</v>
-      </c>
-      <c r="K23" s="14">
-        <v>289034.00170085335</v>
-      </c>
-      <c r="L23" s="5">
-        <v>23</v>
-      </c>
-      <c r="M23" s="14">
-        <v>71190.704546186709</v>
-      </c>
-      <c r="N23" s="14">
-        <v>388759.35412184714</v>
-      </c>
-      <c r="O23" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C24" s="1">
-        <v>7</v>
-      </c>
-      <c r="D24" s="14">
-        <v>86270.727880427672</v>
-      </c>
-      <c r="E24" s="14">
-        <v>353883.21314408258</v>
-      </c>
-      <c r="F24" s="5">
-        <v>29</v>
-      </c>
-      <c r="G24" s="14">
-        <v>91388.814509364398</v>
-      </c>
-      <c r="H24" s="14">
-        <v>576151.44055309251</v>
-      </c>
-      <c r="I24" s="5">
-        <v>31</v>
-      </c>
-      <c r="J24" s="14">
-        <v>87148.714233345134</v>
-      </c>
-      <c r="K24" s="14">
-        <v>429101.60249408626</v>
-      </c>
-      <c r="L24" s="5">
-        <v>29</v>
-      </c>
-      <c r="M24" s="14">
-        <v>91749.460048046458</v>
-      </c>
-      <c r="N24" s="14">
-        <v>635572.18586867675</v>
-      </c>
-      <c r="O24" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C25" s="1">
-        <v>8</v>
-      </c>
-      <c r="D25" s="14">
-        <v>79488.911432061926</v>
-      </c>
-      <c r="E25" s="14">
-        <v>442291.20058901934</v>
-      </c>
-      <c r="F25" s="5">
-        <v>27</v>
-      </c>
-      <c r="G25" s="14">
-        <v>94642.441017362755</v>
-      </c>
-      <c r="H25" s="14">
-        <v>626396.53208903025</v>
-      </c>
-      <c r="I25" s="5">
-        <v>32</v>
-      </c>
-      <c r="J25" s="14">
-        <v>81969.26335647954</v>
-      </c>
-      <c r="K25" s="14">
-        <v>326724.87778983405</v>
-      </c>
-      <c r="L25" s="5">
-        <v>26</v>
-      </c>
-      <c r="M25" s="14">
-        <v>100806.00301644845</v>
-      </c>
-      <c r="N25" s="14">
-        <v>532173.42001500947</v>
-      </c>
-      <c r="O25" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="1">
-        <v>9</v>
-      </c>
-      <c r="D26" s="14">
-        <v>74123.155267978495</v>
-      </c>
-      <c r="E26" s="14">
-        <v>409751.38260230434</v>
-      </c>
-      <c r="F26" s="5">
-        <v>25</v>
-      </c>
-      <c r="G26" s="14">
-        <v>81271.654164510226</v>
-      </c>
-      <c r="H26" s="14">
-        <v>469518.2290742831</v>
-      </c>
-      <c r="I26" s="5">
-        <v>26</v>
-      </c>
-      <c r="J26" s="14">
-        <v>75430.682165877952</v>
-      </c>
-      <c r="K26" s="14">
-        <v>412625.73332100397</v>
-      </c>
-      <c r="L26" s="5">
-        <v>25</v>
-      </c>
-      <c r="M26" s="14">
-        <v>66230.966389838504</v>
-      </c>
-      <c r="N26" s="14">
-        <v>269763.67364489246</v>
-      </c>
-      <c r="O26" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C27" s="1">
-        <v>10</v>
-      </c>
-      <c r="D27" s="14">
-        <v>99547.927265717706</v>
-      </c>
-      <c r="E27" s="14">
-        <v>685712.11788974202</v>
-      </c>
-      <c r="F27" s="5">
-        <v>32</v>
-      </c>
-      <c r="G27" s="14">
-        <v>91258.395638613671</v>
-      </c>
-      <c r="H27" s="14">
-        <v>542079.8087691766</v>
-      </c>
-      <c r="I27" s="5">
-        <v>29</v>
-      </c>
-      <c r="J27" s="14">
-        <v>75139.264753614218</v>
-      </c>
-      <c r="K27" s="14">
-        <v>353006.91685623373</v>
-      </c>
-      <c r="L27" s="5">
-        <v>26</v>
-      </c>
-      <c r="M27" s="14">
-        <v>75809.808927517646</v>
-      </c>
-      <c r="N27" s="14">
-        <v>329717.74462576438</v>
-      </c>
-      <c r="O27" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="14">
-        <v>94550.768446008791</v>
-      </c>
-      <c r="E31" s="14">
-        <v>491733.03392998659</v>
-      </c>
-      <c r="F31" s="5">
-        <v>30</v>
-      </c>
-      <c r="G31" s="14">
-        <v>90315.571073518498</v>
-      </c>
-      <c r="H31" s="14">
-        <v>621616.73268957937</v>
-      </c>
-      <c r="I31" s="5">
-        <v>30</v>
-      </c>
-      <c r="J31" s="14">
-        <v>84158.43730843543</v>
-      </c>
-      <c r="K31" s="14">
-        <v>533126.88011996914</v>
-      </c>
-      <c r="L31" s="5">
-        <v>27</v>
-      </c>
-      <c r="M31" s="14">
-        <v>96249.819260163902</v>
-      </c>
-      <c r="N31" s="14">
-        <v>638188.1434041519</v>
-      </c>
-      <c r="O31" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="14">
-        <v>93466.226840096409</v>
-      </c>
-      <c r="E32" s="14">
-        <v>400876.89718626539</v>
-      </c>
-      <c r="F32" s="5">
-        <v>30</v>
-      </c>
-      <c r="G32" s="14">
-        <v>73571.488405051394</v>
-      </c>
-      <c r="H32" s="14">
-        <v>347524.7226414248</v>
-      </c>
-      <c r="I32" s="5">
-        <v>25</v>
-      </c>
-      <c r="J32" s="14">
-        <v>61370.62317411993</v>
-      </c>
-      <c r="K32" s="14">
-        <v>391263.95081303606</v>
-      </c>
-      <c r="L32" s="5">
-        <v>21</v>
-      </c>
-      <c r="M32" s="14">
-        <v>70630.095553386636</v>
-      </c>
-      <c r="N32" s="14">
-        <v>369887.47482755216</v>
-      </c>
-      <c r="O32" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="14">
-        <v>78792.450909099527</v>
-      </c>
-      <c r="E33" s="14">
-        <v>398116.58322381787</v>
-      </c>
-      <c r="F33" s="5">
-        <v>25</v>
-      </c>
-      <c r="G33" s="14">
-        <v>86512.120153134572</v>
-      </c>
-      <c r="H33" s="14">
-        <v>428731.90939125855</v>
-      </c>
-      <c r="I33" s="5">
-        <v>28</v>
-      </c>
-      <c r="J33" s="14">
-        <v>78002.654284554781</v>
-      </c>
-      <c r="K33" s="14">
-        <v>525874.88280237478</v>
-      </c>
-      <c r="L33" s="5">
-        <v>27</v>
-      </c>
-      <c r="M33" s="14">
-        <v>83653.485859356937</v>
-      </c>
-      <c r="N33" s="14">
-        <v>401449.56468929024</v>
-      </c>
-      <c r="O33" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="14">
-        <v>63546.164554612675</v>
-      </c>
-      <c r="E34" s="14">
-        <v>377364.7979123125</v>
-      </c>
-      <c r="F34" s="5">
-        <v>22</v>
-      </c>
-      <c r="G34" s="14">
-        <v>79648.128136380357</v>
-      </c>
-      <c r="H34" s="14">
-        <v>440199.21102365776</v>
-      </c>
-      <c r="I34" s="5">
-        <v>26</v>
-      </c>
-      <c r="J34" s="14">
-        <v>64149.290917704413</v>
-      </c>
-      <c r="K34" s="14">
-        <v>396202.890556339</v>
-      </c>
-      <c r="L34" s="5">
-        <v>21</v>
-      </c>
-      <c r="M34" s="14">
-        <v>91838.18940586246</v>
-      </c>
-      <c r="N34" s="14">
-        <v>392933.45665981295</v>
-      </c>
-      <c r="O34" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" s="14">
-        <v>85757.503401679598</v>
-      </c>
-      <c r="E35" s="14">
-        <v>512657.18684196216</v>
-      </c>
-      <c r="F35" s="5">
-        <v>29</v>
-      </c>
-      <c r="G35" s="14">
-        <v>86309.371197783985</v>
-      </c>
-      <c r="H35" s="14">
-        <v>394146.89332089602</v>
-      </c>
-      <c r="I35" s="5">
-        <v>27</v>
-      </c>
-      <c r="J35" s="14">
-        <v>102413.86792544338</v>
-      </c>
-      <c r="K35" s="14">
-        <v>474479.48492648883</v>
-      </c>
-      <c r="L35" s="5">
-        <v>31</v>
-      </c>
-      <c r="M35" s="14">
-        <v>72465.41367264546</v>
-      </c>
-      <c r="N35" s="14">
-        <v>377307.78277924558</v>
-      </c>
-      <c r="O35" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C36" s="1">
-        <v>6</v>
-      </c>
-      <c r="D36" s="14">
-        <v>98583.507974344844</v>
-      </c>
-      <c r="E36" s="14">
-        <v>486155.50207534782</v>
-      </c>
-      <c r="F36" s="5">
-        <v>30</v>
-      </c>
-      <c r="G36" s="14">
-        <v>97212.915298604057</v>
-      </c>
-      <c r="H36" s="14">
-        <v>537524.12781290687</v>
-      </c>
-      <c r="I36" s="5">
-        <v>32</v>
-      </c>
-      <c r="J36" s="14">
-        <v>73526.374932124862</v>
-      </c>
-      <c r="K36" s="14">
-        <v>295245.15200758021</v>
-      </c>
-      <c r="L36" s="5">
-        <v>24</v>
-      </c>
-      <c r="M36" s="14">
-        <v>71952.121929441142</v>
-      </c>
-      <c r="N36" s="14">
-        <v>396306.01090236683</v>
-      </c>
-      <c r="O36" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C37" s="1">
-        <v>7</v>
-      </c>
-      <c r="D37" s="14">
-        <v>90931.963455075704</v>
-      </c>
-      <c r="E37" s="14">
-        <v>375592.54859789513</v>
-      </c>
-      <c r="F37" s="5">
-        <v>30</v>
-      </c>
-      <c r="G37" s="14">
-        <v>97373.229851221156</v>
-      </c>
-      <c r="H37" s="14">
-        <v>577273.16866884136</v>
-      </c>
-      <c r="I37" s="5">
-        <v>32</v>
-      </c>
-      <c r="J37" s="14">
-        <v>91992.179892413886</v>
-      </c>
-      <c r="K37" s="14">
-        <v>445687.60691223026</v>
-      </c>
-      <c r="L37" s="5">
-        <v>30</v>
-      </c>
-      <c r="M37" s="14">
-        <v>97057.286938352423</v>
-      </c>
-      <c r="N37" s="14">
-        <v>679084.58153132128</v>
-      </c>
-      <c r="O37" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C38" s="1">
-        <v>8</v>
-      </c>
-      <c r="D38" s="14">
-        <v>84489.317843840778</v>
-      </c>
-      <c r="E38" s="14">
-        <v>469827.53468940436</v>
-      </c>
-      <c r="F38" s="5">
-        <v>28</v>
-      </c>
-      <c r="G38" s="14">
-        <v>102815.51908844631</v>
-      </c>
-      <c r="H38" s="14">
-        <v>665163.70854929998</v>
-      </c>
-      <c r="I38" s="5">
-        <v>33</v>
-      </c>
-      <c r="J38" s="14">
-        <v>89710.201945272958</v>
-      </c>
-      <c r="K38" s="14">
-        <v>327730.65097765788</v>
-      </c>
-      <c r="L38" s="5">
-        <v>27</v>
-      </c>
-      <c r="M38" s="14">
-        <v>104760.58711412236</v>
-      </c>
-      <c r="N38" s="14">
-        <v>576011.12657158973</v>
-      </c>
-      <c r="O38" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C39" s="1">
-        <v>9</v>
-      </c>
-      <c r="D39" s="14">
-        <v>78950.358338850041</v>
-      </c>
-      <c r="E39" s="14">
-        <v>410493.33637987846</v>
-      </c>
-      <c r="F39" s="5">
-        <v>26</v>
-      </c>
-      <c r="G39" s="14">
-        <v>85683.495122729728</v>
-      </c>
-      <c r="H39" s="14">
-        <v>476251.35301841953</v>
-      </c>
-      <c r="I39" s="5">
-        <v>27</v>
-      </c>
-      <c r="J39" s="14">
-        <v>75856.13853077103</v>
-      </c>
-      <c r="K39" s="14">
-        <v>442466.29562008369</v>
-      </c>
-      <c r="L39" s="5">
-        <v>26</v>
-      </c>
-      <c r="M39" s="14">
-        <v>69638.040987640939</v>
-      </c>
-      <c r="N39" s="14">
-        <v>275236.82744717452</v>
-      </c>
-      <c r="O39" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C40" s="1">
-        <v>10</v>
-      </c>
-      <c r="D40" s="14">
-        <v>102706.6231802539</v>
-      </c>
-      <c r="E40" s="14">
-        <v>744367.44716733543</v>
-      </c>
-      <c r="F40" s="5">
-        <v>33</v>
-      </c>
-      <c r="G40" s="14">
-        <v>92296.99745120421</v>
-      </c>
-      <c r="H40" s="14">
-        <v>551864.70863362774</v>
-      </c>
-      <c r="I40" s="5">
-        <v>30</v>
-      </c>
-      <c r="J40" s="14">
-        <v>75803.705952712087</v>
-      </c>
-      <c r="K40" s="14">
-        <v>368405.59706164978</v>
-      </c>
-      <c r="L40" s="5">
-        <v>27</v>
-      </c>
-      <c r="M40" s="14">
-        <v>79804.126270013425</v>
-      </c>
-      <c r="N40" s="14">
-        <v>354518.2879129441</v>
-      </c>
-      <c r="O40" s="5">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC374E57-6D5A-1748-A8FC-F66A0437C33E}">
-  <sheetPr codeName="Sheet7">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4DAB9A-B41E-AC46-A16B-4E929EB73830}">
-  <sheetPr codeName="Sheet14">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC093E8-9DCC-0C40-9593-93844E0981DC}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B3:B11"/>
@@ -5520,7 +3159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F714333-1A52-7747-9E8B-66EE6C23D349}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
@@ -5549,7 +3188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1867C0A-4722-2846-982D-A6CE6C850375}">
   <sheetPr codeName="Sheet23">
     <tabColor rgb="FF00B050"/>
@@ -5578,7 +3217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780CA9C0-DA7C-1447-9A6D-3A446166F8B1}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
@@ -5594,12 +3233,12 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -5613,7 +3252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D642AE57-0BEE-9C4E-A671-8A70533C34E8}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFFF00"/>
@@ -5632,16 +3271,16 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -5649,13 +3288,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="16">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -5663,13 +3302,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="16">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5677,136 +3316,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B9ECF-479C-1A4A-B5D3-D9E365BDAC6C}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:E27"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3306A04A-E335-DA43-BCB6-B168706A1B67}">
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5822,17 +3341,17 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -6152,7 +3671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD121B9-5766-5245-8E34-7293E4CDAE9F}">
   <sheetPr codeName="Sheet13">
     <tabColor rgb="FFFFFF00"/>
@@ -6175,19 +3694,19 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="H2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -6342,7 +3861,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
@@ -6366,7 +3885,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
@@ -6412,7 +3931,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
@@ -6460,10 +3979,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="I15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -6483,10 +4002,10 @@
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.3">
@@ -6501,10 +4020,10 @@
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.3">
@@ -6526,9 +4045,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5DD08-8A55-B849-B29A-8F5A9093D27E}">
-  <sheetPr>
+  <sheetPr codeName="Sheet24">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2"/>
@@ -6542,7 +4061,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6554,9 +4073,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE959D74-589C-B440-8475-07F987938EF2}">
-  <sheetPr>
+  <sheetPr codeName="Sheet25">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -6572,9 +4091,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB569661-56C8-BA4B-8588-CA504D95C459}">
-  <sheetPr>
+  <sheetPr codeName="Sheet26">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="C3:F14"/>
@@ -6752,9 +4271,131 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B9ECF-479C-1A4A-B5D3-D9E365BDAC6C}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137E4EB2-C10D-9941-9DC3-F6F0B6A199AC}">
-  <sheetPr>
+  <sheetPr codeName="Sheet27">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="C3:L17"/>
@@ -7086,9 +4727,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A72E17-3201-8B44-83DF-473675030C58}">
-  <sheetPr>
+  <sheetPr codeName="Sheet28">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="C3:I14"/>
@@ -7371,9 +5012,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1FD8E7-566A-1248-BF21-A4B42734425F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet29">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="C3:O14"/>
@@ -7866,9 +5507,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB152EA-EE71-6040-BAF6-E226721E1304}">
-  <sheetPr>
+  <sheetPr codeName="Sheet30">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="B3:O40"/>
@@ -9292,7 +6933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51877837-A945-E442-8664-88ED3F649F6E}">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFFFF00"/>
@@ -9370,6 +7011,123 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E01E7A2-6C77-A24A-A027-97262D7379F7}">
+  <sheetPr codeName="Sheet15">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="1">
+        <f>SUMPRODUCT(D3:F3,D4:F4)</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="1">
+        <f>SUM(D3:F3)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1">
+        <f>P12/P13</f>
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{790EBD22-FBB9-0E43-8B10-DBC07C8785C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9436,123 +7194,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E01E7A2-6C77-A24A-A027-97262D7379F7}">
-  <sheetPr codeName="Sheet15">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:P24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>200</v>
-      </c>
-      <c r="F3" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="1">
-        <f>SUMPRODUCT(D3:F3,D4:F4)</f>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="1">
-        <f>SUM(D3:F3)</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1">
-        <f>P12/P13</f>
-        <v>6.333333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{790EBD22-FBB9-0E43-8B10-DBC07C8785C7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11053,513 +8694,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F1D69-E77D-554B-88AB-28AA41149712}">
-  <sheetPr codeName="Sheet16">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC374E57-6D5A-1748-A8FC-F66A0437C33E}">
+  <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C3:F14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>82445.652192529014</v>
-      </c>
-      <c r="E5" s="14">
-        <v>398320.27382106544</v>
-      </c>
-      <c r="F5" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>70125.545362721474</v>
-      </c>
-      <c r="E6" s="14">
-        <v>372046.81193544931</v>
-      </c>
-      <c r="F6" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14">
-        <v>71547.329455275263</v>
-      </c>
-      <c r="E7" s="14">
-        <v>395923.9309082441</v>
-      </c>
-      <c r="F7" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>76293.652935267295</v>
-      </c>
-      <c r="E8" s="14">
-        <v>429890.82988121646</v>
-      </c>
-      <c r="F8" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>89786.716463192279</v>
-      </c>
-      <c r="E9" s="14">
-        <v>559779.67481757223</v>
-      </c>
-      <c r="F9" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14">
-        <v>99382.919974268269</v>
-      </c>
-      <c r="E10" s="14">
-        <v>591386.8950826017</v>
-      </c>
-      <c r="F10" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14">
-        <v>80594.457398696104</v>
-      </c>
-      <c r="E11" s="14">
-        <v>456555.96491611289</v>
-      </c>
-      <c r="F11" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14">
-        <v>78939.6717881074</v>
-      </c>
-      <c r="E12" s="14">
-        <v>531734.10323755804</v>
-      </c>
-      <c r="F12" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14">
-        <v>77184.285607607613</v>
-      </c>
-      <c r="E13" s="14">
-        <v>446023.63183301012</v>
-      </c>
-      <c r="F13" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14">
-        <v>89622.710963227044</v>
-      </c>
-      <c r="E14" s="14">
-        <v>528287.4082887175</v>
-      </c>
-      <c r="F14" s="5">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A19A5-2B87-B34D-A000-9EDAF870205B}">
-  <sheetPr codeName="Sheet19">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4DAB9A-B41E-AC46-A16B-4E929EB73830}">
+  <sheetPr codeName="Sheet14">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C3:L17"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>84894.439775848135</v>
-      </c>
-      <c r="E5" s="14">
-        <v>377568.53161599621</v>
-      </c>
-      <c r="F5" s="5">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="14">
-        <v>89935.625991104214</v>
-      </c>
-      <c r="K5" s="14">
-        <v>609179.67887003196</v>
-      </c>
-      <c r="L5" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>75033.878891853718</v>
-      </c>
-      <c r="E6" s="14">
-        <v>441057.07440301537</v>
-      </c>
-      <c r="F6" s="5">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="14">
-        <v>70580.953947642294</v>
-      </c>
-      <c r="K6" s="14">
-        <v>375141.45316443569</v>
-      </c>
-      <c r="L6" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14">
-        <v>68117.185197557963</v>
-      </c>
-      <c r="E7" s="14">
-        <v>469939.26531446126</v>
-      </c>
-      <c r="F7" s="5">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="14">
-        <v>84419.953662897111</v>
-      </c>
-      <c r="K7" s="14">
-        <v>491295.57808884303</v>
-      </c>
-      <c r="L7" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14">
-        <v>67436.606918268648</v>
-      </c>
-      <c r="E8" s="14">
-        <v>299227.10236638621</v>
-      </c>
-      <c r="F8" s="5">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="14">
-        <v>78010.065587043486</v>
-      </c>
-      <c r="K8" s="14">
-        <v>532943.74208315206</v>
-      </c>
-      <c r="L8" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>88004.968658709156</v>
-      </c>
-      <c r="E9" s="14">
-        <v>539673.9543232685</v>
-      </c>
-      <c r="F9" s="5">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="14">
-        <v>81494.731882517866</v>
-      </c>
-      <c r="K9" s="14">
-        <v>498872.68885071704</v>
-      </c>
-      <c r="L9" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14">
-        <v>72639.557119375895</v>
-      </c>
-      <c r="E10" s="14">
-        <v>504813.56962450175</v>
-      </c>
-      <c r="F10" s="5">
-        <v>24</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="14">
-        <v>74571.193755760178</v>
-      </c>
-      <c r="K10" s="14">
-        <v>352225.61361133627</v>
-      </c>
-      <c r="L10" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14">
-        <v>93968.576663796819</v>
-      </c>
-      <c r="E11" s="14">
-        <v>490059.4185389225</v>
-      </c>
-      <c r="F11" s="5">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="14">
-        <v>80309.907443839096</v>
-      </c>
-      <c r="K11" s="14">
-        <v>549468.58705229219</v>
-      </c>
-      <c r="L11" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14">
-        <v>69831.10303412858</v>
-      </c>
-      <c r="E12" s="14">
-        <v>447612.25715691107</v>
-      </c>
-      <c r="F12" s="5">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="14">
-        <v>66692.088863362296</v>
-      </c>
-      <c r="K12" s="14">
-        <v>396338.70581471984</v>
-      </c>
-      <c r="L12" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14">
-        <v>56577.190855749723</v>
-      </c>
-      <c r="E13" s="14">
-        <v>385564.21553171007</v>
-      </c>
-      <c r="F13" s="5">
-        <v>19</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="14">
-        <v>72376.719259592879</v>
-      </c>
-      <c r="K13" s="14">
-        <v>402789.83665307704</v>
-      </c>
-      <c r="L13" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14">
-        <v>89233.947168899147</v>
-      </c>
-      <c r="E14" s="14">
-        <v>408344.79101593466</v>
-      </c>
-      <c r="F14" s="5">
-        <v>30</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="14">
-        <v>87046.530711546366</v>
-      </c>
-      <c r="K14" s="14">
-        <v>351597.09841241088</v>
-      </c>
-      <c r="L14" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>